--- a/Code/Results/Cases/Case_0_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_52/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8713977856990984</v>
+        <v>0.8713977856990978</v>
       </c>
       <c r="D2">
-        <v>0.8814820645986663</v>
+        <v>0.8814820645986656</v>
       </c>
       <c r="E2">
-        <v>0.8952452544982819</v>
+        <v>0.8952452544982812</v>
       </c>
       <c r="F2">
-        <v>0.8398281851841751</v>
+        <v>0.8398281851841743</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.024295415454746</v>
       </c>
       <c r="J2">
-        <v>0.8982468848945152</v>
+        <v>0.8982468848945147</v>
       </c>
       <c r="K2">
-        <v>0.8948831926830053</v>
+        <v>0.8948831926830048</v>
       </c>
       <c r="L2">
-        <v>0.9083864909556191</v>
+        <v>0.9083864909556185</v>
       </c>
       <c r="M2">
-        <v>0.8540848962357225</v>
+        <v>0.8540848962357219</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8955783151541564</v>
+        <v>0.8955783151541571</v>
       </c>
       <c r="D3">
-        <v>0.9045172729344815</v>
+        <v>0.9045172729344824</v>
       </c>
       <c r="E3">
-        <v>0.9156561017543875</v>
+        <v>0.9156561017543886</v>
       </c>
       <c r="F3">
-        <v>0.8689755741354633</v>
+        <v>0.8689755741354644</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.028941193906624</v>
       </c>
       <c r="J3">
-        <v>0.9193858904315326</v>
+        <v>0.9193858904315338</v>
       </c>
       <c r="K3">
-        <v>0.9165375969434975</v>
+        <v>0.9165375969434982</v>
       </c>
       <c r="L3">
-        <v>0.9274954634880753</v>
+        <v>0.9274954634880763</v>
       </c>
       <c r="M3">
-        <v>0.881613699018274</v>
+        <v>0.8816136990182754</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9094930657852385</v>
+        <v>0.9094930657852371</v>
       </c>
       <c r="D4">
-        <v>0.9177858858588634</v>
+        <v>0.9177858858588622</v>
       </c>
       <c r="E4">
-        <v>0.9274267341298588</v>
+        <v>0.9274267341298575</v>
       </c>
       <c r="F4">
-        <v>0.8856857244515568</v>
+        <v>0.8856857244515554</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.031589287100975</v>
       </c>
       <c r="J4">
-        <v>0.9315340518745262</v>
+        <v>0.9315340518745248</v>
       </c>
       <c r="K4">
-        <v>0.9289894790470629</v>
+        <v>0.9289894790470614</v>
       </c>
       <c r="L4">
-        <v>0.9384878722427012</v>
+        <v>0.9384878722427001</v>
       </c>
       <c r="M4">
-        <v>0.8973923676322055</v>
+        <v>0.8973923676322041</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9150121330668203</v>
+        <v>0.9150121330668211</v>
       </c>
       <c r="D5">
-        <v>0.9230510607100301</v>
+        <v>0.923051060710031</v>
       </c>
       <c r="E5">
-        <v>0.9321002020392684</v>
+        <v>0.9321002020392687</v>
       </c>
       <c r="F5">
-        <v>0.8923038241226955</v>
+        <v>0.8923038241226963</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.032631709213732</v>
       </c>
       <c r="J5">
-        <v>0.9363482049598161</v>
+        <v>0.9363482049598167</v>
       </c>
       <c r="K5">
-        <v>0.9339257082879547</v>
+        <v>0.9339257082879557</v>
       </c>
       <c r="L5">
-        <v>0.9428463320118057</v>
+        <v>0.942846332011806</v>
       </c>
       <c r="M5">
-        <v>0.9036400491945503</v>
+        <v>0.9036400491945512</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9159212960631282</v>
+        <v>0.9159212960631293</v>
       </c>
       <c r="D6">
-        <v>0.9239185238773983</v>
+        <v>0.9239185238773993</v>
       </c>
       <c r="E6">
-        <v>0.9328703253983869</v>
+        <v>0.9328703253983879</v>
       </c>
       <c r="F6">
-        <v>0.8933935765287625</v>
+        <v>0.8933935765287637</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.032802919256916</v>
       </c>
       <c r="J6">
-        <v>0.9371409903865255</v>
+        <v>0.9371409903865268</v>
       </c>
       <c r="K6">
-        <v>0.9347386960773773</v>
+        <v>0.9347386960773785</v>
       </c>
       <c r="L6">
-        <v>0.9435642046515552</v>
+        <v>0.9435642046515562</v>
       </c>
       <c r="M6">
-        <v>0.904668705053519</v>
+        <v>0.9046687050535204</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9095680230425454</v>
+        <v>0.909568023042546</v>
       </c>
       <c r="D7">
-        <v>0.9178573860724184</v>
+        <v>0.9178573860724192</v>
       </c>
       <c r="E7">
-        <v>0.9274901887920994</v>
+        <v>0.9274901887921007</v>
       </c>
       <c r="F7">
-        <v>0.8857756416437388</v>
+        <v>0.8857756416437389</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,13 +629,13 @@
         <v>1.03160347855443</v>
       </c>
       <c r="J7">
-        <v>0.931599452632864</v>
+        <v>0.9315994526328647</v>
       </c>
       <c r="K7">
-        <v>0.9290565314288514</v>
+        <v>0.9290565314288519</v>
       </c>
       <c r="L7">
-        <v>0.9385470733742537</v>
+        <v>0.9385470733742548</v>
       </c>
       <c r="M7">
         <v>0.8974772588244551</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8799906350880643</v>
+        <v>0.8799906350880689</v>
       </c>
       <c r="D8">
-        <v>0.8896644463803473</v>
+        <v>0.8896644463803518</v>
       </c>
       <c r="E8">
-        <v>0.902491917295864</v>
+        <v>0.9024919172958681</v>
       </c>
       <c r="F8">
-        <v>0.8502045322565344</v>
+        <v>0.8502045322565395</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025950596305024</v>
+        <v>1.025950596305025</v>
       </c>
       <c r="J8">
-        <v>0.9057623030441944</v>
+        <v>0.9057623030441989</v>
       </c>
       <c r="K8">
-        <v>0.9025800880360745</v>
+        <v>0.9025800880360791</v>
       </c>
       <c r="L8">
-        <v>0.9151775181689183</v>
+        <v>0.9151775181689223</v>
       </c>
       <c r="M8">
-        <v>0.863885282776102</v>
+        <v>0.863885282776107</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8072138829379444</v>
+        <v>0.8072138829379449</v>
       </c>
       <c r="D9">
-        <v>0.8205054868696428</v>
+        <v>0.8205054868696434</v>
       </c>
       <c r="E9">
-        <v>0.8413728285564175</v>
+        <v>0.8413728285564177</v>
       </c>
       <c r="F9">
-        <v>0.7613622144368057</v>
+        <v>0.7613622144368066</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J9">
-        <v>0.8420532870472233</v>
+        <v>0.8420532870472238</v>
       </c>
       <c r="K9">
-        <v>0.8373826915921636</v>
+        <v>0.8373826915921642</v>
       </c>
       <c r="L9">
-        <v>0.8576977625482127</v>
+        <v>0.8576977625482131</v>
       </c>
       <c r="M9">
-        <v>0.7800349525008526</v>
+        <v>0.7800349525008534</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8072138829379444</v>
+        <v>0.8072138829379449</v>
       </c>
       <c r="D10">
-        <v>0.8205054868696428</v>
+        <v>0.8205054868696434</v>
       </c>
       <c r="E10">
-        <v>0.8413728285564175</v>
+        <v>0.8413728285564177</v>
       </c>
       <c r="F10">
-        <v>0.7613622144368057</v>
+        <v>0.7613622144368066</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J10">
-        <v>0.8420532870472233</v>
+        <v>0.8420532870472238</v>
       </c>
       <c r="K10">
-        <v>0.8373826915921636</v>
+        <v>0.8373826915921642</v>
       </c>
       <c r="L10">
-        <v>0.8576977625482127</v>
+        <v>0.8576977625482131</v>
       </c>
       <c r="M10">
-        <v>0.7800349525008526</v>
+        <v>0.7800349525008534</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8072138829379444</v>
+        <v>0.8072138829379449</v>
       </c>
       <c r="D11">
-        <v>0.8205054868696428</v>
+        <v>0.8205054868696434</v>
       </c>
       <c r="E11">
-        <v>0.8413728285564175</v>
+        <v>0.8413728285564177</v>
       </c>
       <c r="F11">
-        <v>0.7613622144368057</v>
+        <v>0.7613622144368066</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J11">
-        <v>0.8420532870472233</v>
+        <v>0.8420532870472238</v>
       </c>
       <c r="K11">
-        <v>0.8373826915921636</v>
+        <v>0.8373826915921642</v>
       </c>
       <c r="L11">
-        <v>0.8576977625482127</v>
+        <v>0.8576977625482131</v>
       </c>
       <c r="M11">
-        <v>0.7800349525008526</v>
+        <v>0.7800349525008534</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8072138829379444</v>
+        <v>0.8072138829379449</v>
       </c>
       <c r="D12">
-        <v>0.8205054868696428</v>
+        <v>0.8205054868696434</v>
       </c>
       <c r="E12">
-        <v>0.8413728285564175</v>
+        <v>0.8413728285564177</v>
       </c>
       <c r="F12">
-        <v>0.7613622144368057</v>
+        <v>0.7613622144368066</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J12">
-        <v>0.8420532870472233</v>
+        <v>0.8420532870472238</v>
       </c>
       <c r="K12">
-        <v>0.8373826915921636</v>
+        <v>0.8373826915921642</v>
       </c>
       <c r="L12">
-        <v>0.8576977625482127</v>
+        <v>0.8576977625482131</v>
       </c>
       <c r="M12">
-        <v>0.7800349525008526</v>
+        <v>0.7800349525008534</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8072138829379444</v>
+        <v>0.8072138829379449</v>
       </c>
       <c r="D13">
-        <v>0.8205054868696428</v>
+        <v>0.8205054868696434</v>
       </c>
       <c r="E13">
-        <v>0.8413728285564175</v>
+        <v>0.8413728285564177</v>
       </c>
       <c r="F13">
-        <v>0.7613622144368057</v>
+        <v>0.7613622144368066</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J13">
-        <v>0.8420532870472233</v>
+        <v>0.8420532870472238</v>
       </c>
       <c r="K13">
-        <v>0.8373826915921636</v>
+        <v>0.8373826915921642</v>
       </c>
       <c r="L13">
-        <v>0.8576977625482127</v>
+        <v>0.8576977625482131</v>
       </c>
       <c r="M13">
-        <v>0.7800349525008526</v>
+        <v>0.7800349525008534</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8072138829379444</v>
+        <v>0.8072138829379449</v>
       </c>
       <c r="D14">
-        <v>0.8205054868696428</v>
+        <v>0.8205054868696434</v>
       </c>
       <c r="E14">
-        <v>0.8413728285564175</v>
+        <v>0.8413728285564177</v>
       </c>
       <c r="F14">
-        <v>0.7613622144368057</v>
+        <v>0.7613622144368066</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J14">
-        <v>0.8420532870472233</v>
+        <v>0.8420532870472238</v>
       </c>
       <c r="K14">
-        <v>0.8373826915921636</v>
+        <v>0.8373826915921642</v>
       </c>
       <c r="L14">
-        <v>0.8576977625482127</v>
+        <v>0.8576977625482131</v>
       </c>
       <c r="M14">
-        <v>0.7800349525008526</v>
+        <v>0.7800349525008534</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8072138829379444</v>
+        <v>0.8072138829379449</v>
       </c>
       <c r="D15">
-        <v>0.8205054868696428</v>
+        <v>0.8205054868696434</v>
       </c>
       <c r="E15">
-        <v>0.8413728285564175</v>
+        <v>0.8413728285564177</v>
       </c>
       <c r="F15">
-        <v>0.7613622144368057</v>
+        <v>0.7613622144368066</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J15">
-        <v>0.8420532870472233</v>
+        <v>0.8420532870472238</v>
       </c>
       <c r="K15">
-        <v>0.8373826915921636</v>
+        <v>0.8373826915921642</v>
       </c>
       <c r="L15">
-        <v>0.8576977625482127</v>
+        <v>0.8576977625482131</v>
       </c>
       <c r="M15">
-        <v>0.7800349525008526</v>
+        <v>0.7800349525008534</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8072138829379444</v>
+        <v>0.8072138829379449</v>
       </c>
       <c r="D16">
-        <v>0.8205054868696428</v>
+        <v>0.8205054868696434</v>
       </c>
       <c r="E16">
-        <v>0.8413728285564175</v>
+        <v>0.8413728285564177</v>
       </c>
       <c r="F16">
-        <v>0.7613622144368057</v>
+        <v>0.7613622144368066</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J16">
-        <v>0.8420532870472233</v>
+        <v>0.8420532870472238</v>
       </c>
       <c r="K16">
-        <v>0.8373826915921636</v>
+        <v>0.8373826915921642</v>
       </c>
       <c r="L16">
-        <v>0.8576977625482127</v>
+        <v>0.8576977625482131</v>
       </c>
       <c r="M16">
-        <v>0.7800349525008526</v>
+        <v>0.7800349525008534</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8072138829379444</v>
+        <v>0.8072138829379449</v>
       </c>
       <c r="D17">
-        <v>0.8205054868696428</v>
+        <v>0.8205054868696434</v>
       </c>
       <c r="E17">
-        <v>0.8413728285564175</v>
+        <v>0.8413728285564177</v>
       </c>
       <c r="F17">
-        <v>0.7613622144368057</v>
+        <v>0.7613622144368066</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J17">
-        <v>0.8420532870472233</v>
+        <v>0.8420532870472238</v>
       </c>
       <c r="K17">
-        <v>0.8373826915921636</v>
+        <v>0.8373826915921642</v>
       </c>
       <c r="L17">
-        <v>0.8576977625482127</v>
+        <v>0.8576977625482131</v>
       </c>
       <c r="M17">
-        <v>0.7800349525008526</v>
+        <v>0.7800349525008534</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8072138829379444</v>
+        <v>0.8072138829379449</v>
       </c>
       <c r="D18">
-        <v>0.8205054868696428</v>
+        <v>0.8205054868696434</v>
       </c>
       <c r="E18">
-        <v>0.8413728285564175</v>
+        <v>0.8413728285564177</v>
       </c>
       <c r="F18">
-        <v>0.7613622144368057</v>
+        <v>0.7613622144368066</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J18">
-        <v>0.8420532870472233</v>
+        <v>0.8420532870472238</v>
       </c>
       <c r="K18">
-        <v>0.8373826915921636</v>
+        <v>0.8373826915921642</v>
       </c>
       <c r="L18">
-        <v>0.8576977625482127</v>
+        <v>0.8576977625482131</v>
       </c>
       <c r="M18">
-        <v>0.7800349525008526</v>
+        <v>0.7800349525008534</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8072138829379444</v>
+        <v>0.8072138829379449</v>
       </c>
       <c r="D19">
-        <v>0.8205054868696428</v>
+        <v>0.8205054868696434</v>
       </c>
       <c r="E19">
-        <v>0.8413728285564175</v>
+        <v>0.8413728285564177</v>
       </c>
       <c r="F19">
-        <v>0.7613622144368057</v>
+        <v>0.7613622144368066</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J19">
-        <v>0.8420532870472233</v>
+        <v>0.8420532870472238</v>
       </c>
       <c r="K19">
-        <v>0.8373826915921636</v>
+        <v>0.8373826915921642</v>
       </c>
       <c r="L19">
-        <v>0.8576977625482127</v>
+        <v>0.8576977625482131</v>
       </c>
       <c r="M19">
-        <v>0.7800349525008526</v>
+        <v>0.7800349525008534</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8072138829379444</v>
+        <v>0.8072138829379449</v>
       </c>
       <c r="D20">
-        <v>0.8205054868696428</v>
+        <v>0.8205054868696434</v>
       </c>
       <c r="E20">
-        <v>0.8413728285564175</v>
+        <v>0.8413728285564177</v>
       </c>
       <c r="F20">
-        <v>0.7613622144368057</v>
+        <v>0.7613622144368066</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J20">
-        <v>0.8420532870472233</v>
+        <v>0.8420532870472238</v>
       </c>
       <c r="K20">
-        <v>0.8373826915921636</v>
+        <v>0.8373826915921642</v>
       </c>
       <c r="L20">
-        <v>0.8576977625482127</v>
+        <v>0.8576977625482131</v>
       </c>
       <c r="M20">
-        <v>0.7800349525008526</v>
+        <v>0.7800349525008534</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8072138829379444</v>
+        <v>0.8072138829379449</v>
       </c>
       <c r="D21">
-        <v>0.8205054868696428</v>
+        <v>0.8205054868696434</v>
       </c>
       <c r="E21">
-        <v>0.8413728285564175</v>
+        <v>0.8413728285564177</v>
       </c>
       <c r="F21">
-        <v>0.7613622144368057</v>
+        <v>0.7613622144368066</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J21">
-        <v>0.8420532870472233</v>
+        <v>0.8420532870472238</v>
       </c>
       <c r="K21">
-        <v>0.8373826915921636</v>
+        <v>0.8373826915921642</v>
       </c>
       <c r="L21">
-        <v>0.8576977625482127</v>
+        <v>0.8576977625482131</v>
       </c>
       <c r="M21">
-        <v>0.7800349525008526</v>
+        <v>0.7800349525008534</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8072138829379444</v>
+        <v>0.8072138829379449</v>
       </c>
       <c r="D22">
-        <v>0.8205054868696428</v>
+        <v>0.8205054868696434</v>
       </c>
       <c r="E22">
-        <v>0.8413728285564175</v>
+        <v>0.8413728285564177</v>
       </c>
       <c r="F22">
-        <v>0.7613622144368057</v>
+        <v>0.7613622144368066</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J22">
-        <v>0.8420532870472233</v>
+        <v>0.8420532870472238</v>
       </c>
       <c r="K22">
-        <v>0.8373826915921636</v>
+        <v>0.8373826915921642</v>
       </c>
       <c r="L22">
-        <v>0.8576977625482127</v>
+        <v>0.8576977625482131</v>
       </c>
       <c r="M22">
-        <v>0.7800349525008526</v>
+        <v>0.7800349525008534</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8072138829379444</v>
+        <v>0.8072138829379449</v>
       </c>
       <c r="D23">
-        <v>0.8205054868696428</v>
+        <v>0.8205054868696434</v>
       </c>
       <c r="E23">
-        <v>0.8413728285564175</v>
+        <v>0.8413728285564177</v>
       </c>
       <c r="F23">
-        <v>0.7613622144368057</v>
+        <v>0.7613622144368066</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J23">
-        <v>0.8420532870472233</v>
+        <v>0.8420532870472238</v>
       </c>
       <c r="K23">
-        <v>0.8373826915921636</v>
+        <v>0.8373826915921642</v>
       </c>
       <c r="L23">
-        <v>0.8576977625482127</v>
+        <v>0.8576977625482131</v>
       </c>
       <c r="M23">
-        <v>0.7800349525008526</v>
+        <v>0.7800349525008534</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8072138829379444</v>
+        <v>0.8072138829379449</v>
       </c>
       <c r="D24">
-        <v>0.8205054868696428</v>
+        <v>0.8205054868696434</v>
       </c>
       <c r="E24">
-        <v>0.8413728285564175</v>
+        <v>0.8413728285564177</v>
       </c>
       <c r="F24">
-        <v>0.7613622144368057</v>
+        <v>0.7613622144368066</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J24">
-        <v>0.8420532870472233</v>
+        <v>0.8420532870472238</v>
       </c>
       <c r="K24">
-        <v>0.8373826915921636</v>
+        <v>0.8373826915921642</v>
       </c>
       <c r="L24">
-        <v>0.8576977625482127</v>
+        <v>0.8576977625482131</v>
       </c>
       <c r="M24">
-        <v>0.7800349525008526</v>
+        <v>0.7800349525008534</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8072138829379444</v>
+        <v>0.8072138829379449</v>
       </c>
       <c r="D25">
-        <v>0.8205054868696428</v>
+        <v>0.8205054868696434</v>
       </c>
       <c r="E25">
-        <v>0.8413728285564175</v>
+        <v>0.8413728285564177</v>
       </c>
       <c r="F25">
-        <v>0.7613622144368057</v>
+        <v>0.7613622144368066</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J25">
-        <v>0.8420532870472233</v>
+        <v>0.8420532870472238</v>
       </c>
       <c r="K25">
-        <v>0.8373826915921636</v>
+        <v>0.8373826915921642</v>
       </c>
       <c r="L25">
-        <v>0.8576977625482127</v>
+        <v>0.8576977625482131</v>
       </c>
       <c r="M25">
-        <v>0.7800349525008526</v>
+        <v>0.7800349525008534</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_52/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8713977856990978</v>
+        <v>0.8713977856990984</v>
       </c>
       <c r="D2">
-        <v>0.8814820645986656</v>
+        <v>0.8814820645986663</v>
       </c>
       <c r="E2">
-        <v>0.8952452544982812</v>
+        <v>0.8952452544982819</v>
       </c>
       <c r="F2">
-        <v>0.8398281851841743</v>
+        <v>0.8398281851841751</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.024295415454746</v>
       </c>
       <c r="J2">
-        <v>0.8982468848945147</v>
+        <v>0.8982468848945152</v>
       </c>
       <c r="K2">
-        <v>0.8948831926830048</v>
+        <v>0.8948831926830053</v>
       </c>
       <c r="L2">
-        <v>0.9083864909556185</v>
+        <v>0.9083864909556191</v>
       </c>
       <c r="M2">
-        <v>0.8540848962357219</v>
+        <v>0.8540848962357225</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8955783151541571</v>
+        <v>0.8955783151541564</v>
       </c>
       <c r="D3">
-        <v>0.9045172729344824</v>
+        <v>0.9045172729344815</v>
       </c>
       <c r="E3">
-        <v>0.9156561017543886</v>
+        <v>0.9156561017543875</v>
       </c>
       <c r="F3">
-        <v>0.8689755741354644</v>
+        <v>0.8689755741354633</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.028941193906624</v>
       </c>
       <c r="J3">
-        <v>0.9193858904315338</v>
+        <v>0.9193858904315326</v>
       </c>
       <c r="K3">
-        <v>0.9165375969434982</v>
+        <v>0.9165375969434975</v>
       </c>
       <c r="L3">
-        <v>0.9274954634880763</v>
+        <v>0.9274954634880753</v>
       </c>
       <c r="M3">
-        <v>0.8816136990182754</v>
+        <v>0.881613699018274</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9094930657852371</v>
+        <v>0.9094930657852385</v>
       </c>
       <c r="D4">
-        <v>0.9177858858588622</v>
+        <v>0.9177858858588634</v>
       </c>
       <c r="E4">
-        <v>0.9274267341298575</v>
+        <v>0.9274267341298588</v>
       </c>
       <c r="F4">
-        <v>0.8856857244515554</v>
+        <v>0.8856857244515568</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.031589287100975</v>
       </c>
       <c r="J4">
-        <v>0.9315340518745248</v>
+        <v>0.9315340518745262</v>
       </c>
       <c r="K4">
-        <v>0.9289894790470614</v>
+        <v>0.9289894790470629</v>
       </c>
       <c r="L4">
-        <v>0.9384878722427001</v>
+        <v>0.9384878722427012</v>
       </c>
       <c r="M4">
-        <v>0.8973923676322041</v>
+        <v>0.8973923676322055</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9150121330668211</v>
+        <v>0.9150121330668203</v>
       </c>
       <c r="D5">
-        <v>0.923051060710031</v>
+        <v>0.9230510607100301</v>
       </c>
       <c r="E5">
-        <v>0.9321002020392687</v>
+        <v>0.9321002020392684</v>
       </c>
       <c r="F5">
-        <v>0.8923038241226963</v>
+        <v>0.8923038241226955</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.032631709213732</v>
       </c>
       <c r="J5">
-        <v>0.9363482049598167</v>
+        <v>0.9363482049598161</v>
       </c>
       <c r="K5">
-        <v>0.9339257082879557</v>
+        <v>0.9339257082879547</v>
       </c>
       <c r="L5">
-        <v>0.942846332011806</v>
+        <v>0.9428463320118057</v>
       </c>
       <c r="M5">
-        <v>0.9036400491945512</v>
+        <v>0.9036400491945503</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9159212960631293</v>
+        <v>0.9159212960631282</v>
       </c>
       <c r="D6">
-        <v>0.9239185238773993</v>
+        <v>0.9239185238773983</v>
       </c>
       <c r="E6">
-        <v>0.9328703253983879</v>
+        <v>0.9328703253983869</v>
       </c>
       <c r="F6">
-        <v>0.8933935765287637</v>
+        <v>0.8933935765287625</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.032802919256916</v>
       </c>
       <c r="J6">
-        <v>0.9371409903865268</v>
+        <v>0.9371409903865255</v>
       </c>
       <c r="K6">
-        <v>0.9347386960773785</v>
+        <v>0.9347386960773773</v>
       </c>
       <c r="L6">
-        <v>0.9435642046515562</v>
+        <v>0.9435642046515552</v>
       </c>
       <c r="M6">
-        <v>0.9046687050535204</v>
+        <v>0.904668705053519</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.909568023042546</v>
+        <v>0.9095680230425454</v>
       </c>
       <c r="D7">
-        <v>0.9178573860724192</v>
+        <v>0.9178573860724184</v>
       </c>
       <c r="E7">
-        <v>0.9274901887921007</v>
+        <v>0.9274901887920994</v>
       </c>
       <c r="F7">
-        <v>0.8857756416437389</v>
+        <v>0.8857756416437388</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,13 +629,13 @@
         <v>1.03160347855443</v>
       </c>
       <c r="J7">
-        <v>0.9315994526328647</v>
+        <v>0.931599452632864</v>
       </c>
       <c r="K7">
-        <v>0.9290565314288519</v>
+        <v>0.9290565314288514</v>
       </c>
       <c r="L7">
-        <v>0.9385470733742548</v>
+        <v>0.9385470733742537</v>
       </c>
       <c r="M7">
         <v>0.8974772588244551</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8799906350880689</v>
+        <v>0.8799906350880643</v>
       </c>
       <c r="D8">
-        <v>0.8896644463803518</v>
+        <v>0.8896644463803473</v>
       </c>
       <c r="E8">
-        <v>0.9024919172958681</v>
+        <v>0.902491917295864</v>
       </c>
       <c r="F8">
-        <v>0.8502045322565395</v>
+        <v>0.8502045322565344</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025950596305025</v>
+        <v>1.025950596305024</v>
       </c>
       <c r="J8">
-        <v>0.9057623030441989</v>
+        <v>0.9057623030441944</v>
       </c>
       <c r="K8">
-        <v>0.9025800880360791</v>
+        <v>0.9025800880360745</v>
       </c>
       <c r="L8">
-        <v>0.9151775181689223</v>
+        <v>0.9151775181689183</v>
       </c>
       <c r="M8">
-        <v>0.863885282776107</v>
+        <v>0.863885282776102</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8072138829379449</v>
+        <v>0.8072138829379444</v>
       </c>
       <c r="D9">
-        <v>0.8205054868696434</v>
+        <v>0.8205054868696428</v>
       </c>
       <c r="E9">
-        <v>0.8413728285564177</v>
+        <v>0.8413728285564175</v>
       </c>
       <c r="F9">
-        <v>0.7613622144368066</v>
+        <v>0.7613622144368057</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J9">
-        <v>0.8420532870472238</v>
+        <v>0.8420532870472233</v>
       </c>
       <c r="K9">
-        <v>0.8373826915921642</v>
+        <v>0.8373826915921636</v>
       </c>
       <c r="L9">
-        <v>0.8576977625482131</v>
+        <v>0.8576977625482127</v>
       </c>
       <c r="M9">
-        <v>0.7800349525008534</v>
+        <v>0.7800349525008526</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8072138829379449</v>
+        <v>0.8072138829379444</v>
       </c>
       <c r="D10">
-        <v>0.8205054868696434</v>
+        <v>0.8205054868696428</v>
       </c>
       <c r="E10">
-        <v>0.8413728285564177</v>
+        <v>0.8413728285564175</v>
       </c>
       <c r="F10">
-        <v>0.7613622144368066</v>
+        <v>0.7613622144368057</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J10">
-        <v>0.8420532870472238</v>
+        <v>0.8420532870472233</v>
       </c>
       <c r="K10">
-        <v>0.8373826915921642</v>
+        <v>0.8373826915921636</v>
       </c>
       <c r="L10">
-        <v>0.8576977625482131</v>
+        <v>0.8576977625482127</v>
       </c>
       <c r="M10">
-        <v>0.7800349525008534</v>
+        <v>0.7800349525008526</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8072138829379449</v>
+        <v>0.8072138829379444</v>
       </c>
       <c r="D11">
-        <v>0.8205054868696434</v>
+        <v>0.8205054868696428</v>
       </c>
       <c r="E11">
-        <v>0.8413728285564177</v>
+        <v>0.8413728285564175</v>
       </c>
       <c r="F11">
-        <v>0.7613622144368066</v>
+        <v>0.7613622144368057</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J11">
-        <v>0.8420532870472238</v>
+        <v>0.8420532870472233</v>
       </c>
       <c r="K11">
-        <v>0.8373826915921642</v>
+        <v>0.8373826915921636</v>
       </c>
       <c r="L11">
-        <v>0.8576977625482131</v>
+        <v>0.8576977625482127</v>
       </c>
       <c r="M11">
-        <v>0.7800349525008534</v>
+        <v>0.7800349525008526</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8072138829379449</v>
+        <v>0.8072138829379444</v>
       </c>
       <c r="D12">
-        <v>0.8205054868696434</v>
+        <v>0.8205054868696428</v>
       </c>
       <c r="E12">
-        <v>0.8413728285564177</v>
+        <v>0.8413728285564175</v>
       </c>
       <c r="F12">
-        <v>0.7613622144368066</v>
+        <v>0.7613622144368057</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J12">
-        <v>0.8420532870472238</v>
+        <v>0.8420532870472233</v>
       </c>
       <c r="K12">
-        <v>0.8373826915921642</v>
+        <v>0.8373826915921636</v>
       </c>
       <c r="L12">
-        <v>0.8576977625482131</v>
+        <v>0.8576977625482127</v>
       </c>
       <c r="M12">
-        <v>0.7800349525008534</v>
+        <v>0.7800349525008526</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8072138829379449</v>
+        <v>0.8072138829379444</v>
       </c>
       <c r="D13">
-        <v>0.8205054868696434</v>
+        <v>0.8205054868696428</v>
       </c>
       <c r="E13">
-        <v>0.8413728285564177</v>
+        <v>0.8413728285564175</v>
       </c>
       <c r="F13">
-        <v>0.7613622144368066</v>
+        <v>0.7613622144368057</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J13">
-        <v>0.8420532870472238</v>
+        <v>0.8420532870472233</v>
       </c>
       <c r="K13">
-        <v>0.8373826915921642</v>
+        <v>0.8373826915921636</v>
       </c>
       <c r="L13">
-        <v>0.8576977625482131</v>
+        <v>0.8576977625482127</v>
       </c>
       <c r="M13">
-        <v>0.7800349525008534</v>
+        <v>0.7800349525008526</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8072138829379449</v>
+        <v>0.8072138829379444</v>
       </c>
       <c r="D14">
-        <v>0.8205054868696434</v>
+        <v>0.8205054868696428</v>
       </c>
       <c r="E14">
-        <v>0.8413728285564177</v>
+        <v>0.8413728285564175</v>
       </c>
       <c r="F14">
-        <v>0.7613622144368066</v>
+        <v>0.7613622144368057</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J14">
-        <v>0.8420532870472238</v>
+        <v>0.8420532870472233</v>
       </c>
       <c r="K14">
-        <v>0.8373826915921642</v>
+        <v>0.8373826915921636</v>
       </c>
       <c r="L14">
-        <v>0.8576977625482131</v>
+        <v>0.8576977625482127</v>
       </c>
       <c r="M14">
-        <v>0.7800349525008534</v>
+        <v>0.7800349525008526</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8072138829379449</v>
+        <v>0.8072138829379444</v>
       </c>
       <c r="D15">
-        <v>0.8205054868696434</v>
+        <v>0.8205054868696428</v>
       </c>
       <c r="E15">
-        <v>0.8413728285564177</v>
+        <v>0.8413728285564175</v>
       </c>
       <c r="F15">
-        <v>0.7613622144368066</v>
+        <v>0.7613622144368057</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J15">
-        <v>0.8420532870472238</v>
+        <v>0.8420532870472233</v>
       </c>
       <c r="K15">
-        <v>0.8373826915921642</v>
+        <v>0.8373826915921636</v>
       </c>
       <c r="L15">
-        <v>0.8576977625482131</v>
+        <v>0.8576977625482127</v>
       </c>
       <c r="M15">
-        <v>0.7800349525008534</v>
+        <v>0.7800349525008526</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8072138829379449</v>
+        <v>0.8072138829379444</v>
       </c>
       <c r="D16">
-        <v>0.8205054868696434</v>
+        <v>0.8205054868696428</v>
       </c>
       <c r="E16">
-        <v>0.8413728285564177</v>
+        <v>0.8413728285564175</v>
       </c>
       <c r="F16">
-        <v>0.7613622144368066</v>
+        <v>0.7613622144368057</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J16">
-        <v>0.8420532870472238</v>
+        <v>0.8420532870472233</v>
       </c>
       <c r="K16">
-        <v>0.8373826915921642</v>
+        <v>0.8373826915921636</v>
       </c>
       <c r="L16">
-        <v>0.8576977625482131</v>
+        <v>0.8576977625482127</v>
       </c>
       <c r="M16">
-        <v>0.7800349525008534</v>
+        <v>0.7800349525008526</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8072138829379449</v>
+        <v>0.8072138829379444</v>
       </c>
       <c r="D17">
-        <v>0.8205054868696434</v>
+        <v>0.8205054868696428</v>
       </c>
       <c r="E17">
-        <v>0.8413728285564177</v>
+        <v>0.8413728285564175</v>
       </c>
       <c r="F17">
-        <v>0.7613622144368066</v>
+        <v>0.7613622144368057</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J17">
-        <v>0.8420532870472238</v>
+        <v>0.8420532870472233</v>
       </c>
       <c r="K17">
-        <v>0.8373826915921642</v>
+        <v>0.8373826915921636</v>
       </c>
       <c r="L17">
-        <v>0.8576977625482131</v>
+        <v>0.8576977625482127</v>
       </c>
       <c r="M17">
-        <v>0.7800349525008534</v>
+        <v>0.7800349525008526</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8072138829379449</v>
+        <v>0.8072138829379444</v>
       </c>
       <c r="D18">
-        <v>0.8205054868696434</v>
+        <v>0.8205054868696428</v>
       </c>
       <c r="E18">
-        <v>0.8413728285564177</v>
+        <v>0.8413728285564175</v>
       </c>
       <c r="F18">
-        <v>0.7613622144368066</v>
+        <v>0.7613622144368057</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J18">
-        <v>0.8420532870472238</v>
+        <v>0.8420532870472233</v>
       </c>
       <c r="K18">
-        <v>0.8373826915921642</v>
+        <v>0.8373826915921636</v>
       </c>
       <c r="L18">
-        <v>0.8576977625482131</v>
+        <v>0.8576977625482127</v>
       </c>
       <c r="M18">
-        <v>0.7800349525008534</v>
+        <v>0.7800349525008526</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8072138829379449</v>
+        <v>0.8072138829379444</v>
       </c>
       <c r="D19">
-        <v>0.8205054868696434</v>
+        <v>0.8205054868696428</v>
       </c>
       <c r="E19">
-        <v>0.8413728285564177</v>
+        <v>0.8413728285564175</v>
       </c>
       <c r="F19">
-        <v>0.7613622144368066</v>
+        <v>0.7613622144368057</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J19">
-        <v>0.8420532870472238</v>
+        <v>0.8420532870472233</v>
       </c>
       <c r="K19">
-        <v>0.8373826915921642</v>
+        <v>0.8373826915921636</v>
       </c>
       <c r="L19">
-        <v>0.8576977625482131</v>
+        <v>0.8576977625482127</v>
       </c>
       <c r="M19">
-        <v>0.7800349525008534</v>
+        <v>0.7800349525008526</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8072138829379449</v>
+        <v>0.8072138829379444</v>
       </c>
       <c r="D20">
-        <v>0.8205054868696434</v>
+        <v>0.8205054868696428</v>
       </c>
       <c r="E20">
-        <v>0.8413728285564177</v>
+        <v>0.8413728285564175</v>
       </c>
       <c r="F20">
-        <v>0.7613622144368066</v>
+        <v>0.7613622144368057</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J20">
-        <v>0.8420532870472238</v>
+        <v>0.8420532870472233</v>
       </c>
       <c r="K20">
-        <v>0.8373826915921642</v>
+        <v>0.8373826915921636</v>
       </c>
       <c r="L20">
-        <v>0.8576977625482131</v>
+        <v>0.8576977625482127</v>
       </c>
       <c r="M20">
-        <v>0.7800349525008534</v>
+        <v>0.7800349525008526</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8072138829379449</v>
+        <v>0.8072138829379444</v>
       </c>
       <c r="D21">
-        <v>0.8205054868696434</v>
+        <v>0.8205054868696428</v>
       </c>
       <c r="E21">
-        <v>0.8413728285564177</v>
+        <v>0.8413728285564175</v>
       </c>
       <c r="F21">
-        <v>0.7613622144368066</v>
+        <v>0.7613622144368057</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J21">
-        <v>0.8420532870472238</v>
+        <v>0.8420532870472233</v>
       </c>
       <c r="K21">
-        <v>0.8373826915921642</v>
+        <v>0.8373826915921636</v>
       </c>
       <c r="L21">
-        <v>0.8576977625482131</v>
+        <v>0.8576977625482127</v>
       </c>
       <c r="M21">
-        <v>0.7800349525008534</v>
+        <v>0.7800349525008526</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8072138829379449</v>
+        <v>0.8072138829379444</v>
       </c>
       <c r="D22">
-        <v>0.8205054868696434</v>
+        <v>0.8205054868696428</v>
       </c>
       <c r="E22">
-        <v>0.8413728285564177</v>
+        <v>0.8413728285564175</v>
       </c>
       <c r="F22">
-        <v>0.7613622144368066</v>
+        <v>0.7613622144368057</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J22">
-        <v>0.8420532870472238</v>
+        <v>0.8420532870472233</v>
       </c>
       <c r="K22">
-        <v>0.8373826915921642</v>
+        <v>0.8373826915921636</v>
       </c>
       <c r="L22">
-        <v>0.8576977625482131</v>
+        <v>0.8576977625482127</v>
       </c>
       <c r="M22">
-        <v>0.7800349525008534</v>
+        <v>0.7800349525008526</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8072138829379449</v>
+        <v>0.8072138829379444</v>
       </c>
       <c r="D23">
-        <v>0.8205054868696434</v>
+        <v>0.8205054868696428</v>
       </c>
       <c r="E23">
-        <v>0.8413728285564177</v>
+        <v>0.8413728285564175</v>
       </c>
       <c r="F23">
-        <v>0.7613622144368066</v>
+        <v>0.7613622144368057</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J23">
-        <v>0.8420532870472238</v>
+        <v>0.8420532870472233</v>
       </c>
       <c r="K23">
-        <v>0.8373826915921642</v>
+        <v>0.8373826915921636</v>
       </c>
       <c r="L23">
-        <v>0.8576977625482131</v>
+        <v>0.8576977625482127</v>
       </c>
       <c r="M23">
-        <v>0.7800349525008534</v>
+        <v>0.7800349525008526</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8072138829379449</v>
+        <v>0.8072138829379444</v>
       </c>
       <c r="D24">
-        <v>0.8205054868696434</v>
+        <v>0.8205054868696428</v>
       </c>
       <c r="E24">
-        <v>0.8413728285564177</v>
+        <v>0.8413728285564175</v>
       </c>
       <c r="F24">
-        <v>0.7613622144368066</v>
+        <v>0.7613622144368057</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J24">
-        <v>0.8420532870472238</v>
+        <v>0.8420532870472233</v>
       </c>
       <c r="K24">
-        <v>0.8373826915921642</v>
+        <v>0.8373826915921636</v>
       </c>
       <c r="L24">
-        <v>0.8576977625482131</v>
+        <v>0.8576977625482127</v>
       </c>
       <c r="M24">
-        <v>0.7800349525008534</v>
+        <v>0.7800349525008526</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8072138829379449</v>
+        <v>0.8072138829379444</v>
       </c>
       <c r="D25">
-        <v>0.8205054868696434</v>
+        <v>0.8205054868696428</v>
       </c>
       <c r="E25">
-        <v>0.8413728285564177</v>
+        <v>0.8413728285564175</v>
       </c>
       <c r="F25">
-        <v>0.7613622144368066</v>
+        <v>0.7613622144368057</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.011968177050914</v>
       </c>
       <c r="J25">
-        <v>0.8420532870472238</v>
+        <v>0.8420532870472233</v>
       </c>
       <c r="K25">
-        <v>0.8373826915921642</v>
+        <v>0.8373826915921636</v>
       </c>
       <c r="L25">
-        <v>0.8576977625482131</v>
+        <v>0.8576977625482127</v>
       </c>
       <c r="M25">
-        <v>0.7800349525008534</v>
+        <v>0.7800349525008526</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_52/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8713977856990984</v>
+        <v>0.8715673011578264</v>
       </c>
       <c r="D2">
-        <v>0.8814820645986663</v>
+        <v>0.8816486996315056</v>
       </c>
       <c r="E2">
-        <v>0.8952452544982819</v>
+        <v>0.8953922515903299</v>
       </c>
       <c r="F2">
-        <v>0.8398281851841751</v>
+        <v>0.840011481750701</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.024295415454746</v>
+        <v>1.024320573869928</v>
       </c>
       <c r="J2">
-        <v>0.8982468848945152</v>
+        <v>0.8984089418837499</v>
       </c>
       <c r="K2">
-        <v>0.8948831926830053</v>
+        <v>0.8950466175723634</v>
       </c>
       <c r="L2">
-        <v>0.9083864909556191</v>
+        <v>0.9085307685032826</v>
       </c>
       <c r="M2">
-        <v>0.8540848962357225</v>
+        <v>0.8542641807424491</v>
+      </c>
+      <c r="N2">
+        <v>0.9332669840876624</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8955783151541564</v>
+        <v>0.8957078618669664</v>
       </c>
       <c r="D3">
-        <v>0.9045172729344815</v>
+        <v>0.904645059792007</v>
       </c>
       <c r="E3">
-        <v>0.9156561017543875</v>
+        <v>0.9157689402866535</v>
       </c>
       <c r="F3">
-        <v>0.8689755741354633</v>
+        <v>0.8691137570516418</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028941193906624</v>
+        <v>1.028960240481353</v>
       </c>
       <c r="J3">
-        <v>0.9193858904315326</v>
+        <v>0.9195106458264911</v>
       </c>
       <c r="K3">
-        <v>0.9165375969434975</v>
+        <v>0.9166632752543977</v>
       </c>
       <c r="L3">
-        <v>0.9274954634880753</v>
+        <v>0.9276064977143244</v>
       </c>
       <c r="M3">
-        <v>0.881613699018274</v>
+        <v>0.8817493525782307</v>
+      </c>
+      <c r="N3">
+        <v>0.9476287948974729</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9094930657852385</v>
+        <v>0.9096024022392425</v>
       </c>
       <c r="D4">
-        <v>0.9177858858588634</v>
+        <v>0.9178939339174056</v>
       </c>
       <c r="E4">
-        <v>0.9274267341298588</v>
+        <v>0.9275222029509996</v>
       </c>
       <c r="F4">
-        <v>0.8856857244515568</v>
+        <v>0.885801538895453</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031589287100975</v>
+        <v>1.031605280628079</v>
       </c>
       <c r="J4">
-        <v>0.9315340518745262</v>
+        <v>0.9316397608774917</v>
       </c>
       <c r="K4">
-        <v>0.9289894790470629</v>
+        <v>0.9290959094704286</v>
       </c>
       <c r="L4">
-        <v>0.9384878722427012</v>
+        <v>0.9385819491832922</v>
       </c>
       <c r="M4">
-        <v>0.8973923676322055</v>
+        <v>0.8975062828687145</v>
+      </c>
+      <c r="N4">
+        <v>0.9558830534726298</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9150121330668203</v>
+        <v>0.9151139155867308</v>
       </c>
       <c r="D5">
-        <v>0.9230510607100301</v>
+        <v>0.9231517134397554</v>
       </c>
       <c r="E5">
-        <v>0.9321002020392684</v>
+        <v>0.9321891610626769</v>
       </c>
       <c r="F5">
-        <v>0.8923038241226955</v>
+        <v>0.8924113556935409</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032631709213732</v>
+        <v>1.032646568971238</v>
       </c>
       <c r="J5">
-        <v>0.9363482049598161</v>
+        <v>0.9364467599590476</v>
       </c>
       <c r="K5">
-        <v>0.9339257082879547</v>
+        <v>0.9340249139809381</v>
       </c>
       <c r="L5">
-        <v>0.9428463320118057</v>
+        <v>0.9429340432649522</v>
       </c>
       <c r="M5">
-        <v>0.9036400491945503</v>
+        <v>0.9037458956243525</v>
+      </c>
+      <c r="N5">
+        <v>0.959154037254818</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9159212960631282</v>
+        <v>0.916021857253787</v>
       </c>
       <c r="D6">
-        <v>0.9239185238773983</v>
+        <v>0.9240179799974365</v>
       </c>
       <c r="E6">
-        <v>0.9328703253983869</v>
+        <v>0.9329582310006375</v>
       </c>
       <c r="F6">
-        <v>0.8933935765287625</v>
+        <v>0.8934997729018401</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032802919256916</v>
+        <v>1.032817596099526</v>
       </c>
       <c r="J6">
-        <v>0.9371409903865255</v>
+        <v>0.9372383868541015</v>
       </c>
       <c r="K6">
-        <v>0.9347386960773773</v>
+        <v>0.9348367320501554</v>
       </c>
       <c r="L6">
-        <v>0.9435642046515552</v>
+        <v>0.9436508852381912</v>
       </c>
       <c r="M6">
-        <v>0.904668705053519</v>
+        <v>0.9047732497825813</v>
+      </c>
+      <c r="N6">
+        <v>0.9596926868159413</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9095680230425454</v>
+        <v>0.9096772552499277</v>
       </c>
       <c r="D7">
-        <v>0.9178573860724184</v>
+        <v>0.9179653321395886</v>
       </c>
       <c r="E7">
-        <v>0.9274901887920994</v>
+        <v>0.9275855678416958</v>
       </c>
       <c r="F7">
-        <v>0.8857756416437388</v>
+        <v>0.8858913414927567</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03160347855443</v>
+        <v>1.031619456406966</v>
       </c>
       <c r="J7">
-        <v>0.931599452632864</v>
+        <v>0.9317050630418816</v>
       </c>
       <c r="K7">
-        <v>0.9290565314288514</v>
+        <v>0.9291628622646185</v>
       </c>
       <c r="L7">
-        <v>0.9385470733742537</v>
+        <v>0.9386410625708648</v>
       </c>
       <c r="M7">
-        <v>0.8974772588244551</v>
+        <v>0.8975910625005996</v>
+      </c>
+      <c r="N7">
+        <v>0.9559274906658944</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8799906350880643</v>
+        <v>0.8801451416733029</v>
       </c>
       <c r="D8">
-        <v>0.8896644463803473</v>
+        <v>0.8898165211450577</v>
       </c>
       <c r="E8">
-        <v>0.902491917295864</v>
+        <v>0.902626116221099</v>
       </c>
       <c r="F8">
-        <v>0.8502045322565344</v>
+        <v>0.8503707534209582</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025950596305024</v>
+        <v>1.025973449212989</v>
       </c>
       <c r="J8">
-        <v>0.9057623030441944</v>
+        <v>0.9059104058479067</v>
       </c>
       <c r="K8">
-        <v>0.9025800880360745</v>
+        <v>0.9027293850025696</v>
       </c>
       <c r="L8">
-        <v>0.9151775181689183</v>
+        <v>0.915309355241969</v>
       </c>
       <c r="M8">
-        <v>0.863885282776102</v>
+        <v>0.8640480844304816</v>
+      </c>
+      <c r="N8">
+        <v>0.938372546164701</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8072138829379444</v>
+        <v>0.807541817117665</v>
       </c>
       <c r="D9">
-        <v>0.8205054868696428</v>
+        <v>0.8208242333292555</v>
       </c>
       <c r="E9">
-        <v>0.8413728285564175</v>
+        <v>0.8416532153435639</v>
       </c>
       <c r="F9">
-        <v>0.7613622144368057</v>
+        <v>0.7617346068961195</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.011968177050914</v>
+        <v>1.01201814014331</v>
       </c>
       <c r="J9">
-        <v>0.8420532870472233</v>
+        <v>0.842359771525458</v>
       </c>
       <c r="K9">
-        <v>0.8373826915921636</v>
+        <v>0.8376927143449004</v>
       </c>
       <c r="L9">
-        <v>0.8576977625482127</v>
+        <v>0.8579709806618521</v>
       </c>
       <c r="M9">
-        <v>0.7800349525008526</v>
+        <v>0.7803948221567905</v>
+      </c>
+      <c r="N9">
+        <v>0.8951294706884227</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8072138829379444</v>
+        <v>0.807541817117665</v>
       </c>
       <c r="D10">
-        <v>0.8205054868696428</v>
+        <v>0.8208242333292555</v>
       </c>
       <c r="E10">
-        <v>0.8413728285564175</v>
+        <v>0.8416532153435639</v>
       </c>
       <c r="F10">
-        <v>0.7613622144368057</v>
+        <v>0.7617346068961195</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.011968177050914</v>
+        <v>1.01201814014331</v>
       </c>
       <c r="J10">
-        <v>0.8420532870472233</v>
+        <v>0.842359771525458</v>
       </c>
       <c r="K10">
-        <v>0.8373826915921636</v>
+        <v>0.8376927143449004</v>
       </c>
       <c r="L10">
-        <v>0.8576977625482127</v>
+        <v>0.8579709806618521</v>
       </c>
       <c r="M10">
-        <v>0.7800349525008526</v>
+        <v>0.7803948221567905</v>
+      </c>
+      <c r="N10">
+        <v>0.8951294706884227</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8072138829379444</v>
+        <v>0.807541817117665</v>
       </c>
       <c r="D11">
-        <v>0.8205054868696428</v>
+        <v>0.8208242333292555</v>
       </c>
       <c r="E11">
-        <v>0.8413728285564175</v>
+        <v>0.8416532153435639</v>
       </c>
       <c r="F11">
-        <v>0.7613622144368057</v>
+        <v>0.7617346068961195</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011968177050914</v>
+        <v>1.01201814014331</v>
       </c>
       <c r="J11">
-        <v>0.8420532870472233</v>
+        <v>0.842359771525458</v>
       </c>
       <c r="K11">
-        <v>0.8373826915921636</v>
+        <v>0.8376927143449004</v>
       </c>
       <c r="L11">
-        <v>0.8576977625482127</v>
+        <v>0.8579709806618521</v>
       </c>
       <c r="M11">
-        <v>0.7800349525008526</v>
+        <v>0.7803948221567905</v>
+      </c>
+      <c r="N11">
+        <v>0.8951294706884227</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8072138829379444</v>
+        <v>0.807541817117665</v>
       </c>
       <c r="D12">
-        <v>0.8205054868696428</v>
+        <v>0.8208242333292555</v>
       </c>
       <c r="E12">
-        <v>0.8413728285564175</v>
+        <v>0.8416532153435639</v>
       </c>
       <c r="F12">
-        <v>0.7613622144368057</v>
+        <v>0.7617346068961195</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.011968177050914</v>
+        <v>1.01201814014331</v>
       </c>
       <c r="J12">
-        <v>0.8420532870472233</v>
+        <v>0.842359771525458</v>
       </c>
       <c r="K12">
-        <v>0.8373826915921636</v>
+        <v>0.8376927143449004</v>
       </c>
       <c r="L12">
-        <v>0.8576977625482127</v>
+        <v>0.8579709806618521</v>
       </c>
       <c r="M12">
-        <v>0.7800349525008526</v>
+        <v>0.7803948221567905</v>
+      </c>
+      <c r="N12">
+        <v>0.8951294706884227</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8072138829379444</v>
+        <v>0.807541817117665</v>
       </c>
       <c r="D13">
-        <v>0.8205054868696428</v>
+        <v>0.8208242333292555</v>
       </c>
       <c r="E13">
-        <v>0.8413728285564175</v>
+        <v>0.8416532153435639</v>
       </c>
       <c r="F13">
-        <v>0.7613622144368057</v>
+        <v>0.7617346068961195</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011968177050914</v>
+        <v>1.01201814014331</v>
       </c>
       <c r="J13">
-        <v>0.8420532870472233</v>
+        <v>0.842359771525458</v>
       </c>
       <c r="K13">
-        <v>0.8373826915921636</v>
+        <v>0.8376927143449004</v>
       </c>
       <c r="L13">
-        <v>0.8576977625482127</v>
+        <v>0.8579709806618521</v>
       </c>
       <c r="M13">
-        <v>0.7800349525008526</v>
+        <v>0.7803948221567905</v>
+      </c>
+      <c r="N13">
+        <v>0.8951294706884227</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8072138829379444</v>
+        <v>0.807541817117665</v>
       </c>
       <c r="D14">
-        <v>0.8205054868696428</v>
+        <v>0.8208242333292555</v>
       </c>
       <c r="E14">
-        <v>0.8413728285564175</v>
+        <v>0.8416532153435639</v>
       </c>
       <c r="F14">
-        <v>0.7613622144368057</v>
+        <v>0.7617346068961195</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.011968177050914</v>
+        <v>1.01201814014331</v>
       </c>
       <c r="J14">
-        <v>0.8420532870472233</v>
+        <v>0.842359771525458</v>
       </c>
       <c r="K14">
-        <v>0.8373826915921636</v>
+        <v>0.8376927143449004</v>
       </c>
       <c r="L14">
-        <v>0.8576977625482127</v>
+        <v>0.8579709806618521</v>
       </c>
       <c r="M14">
-        <v>0.7800349525008526</v>
+        <v>0.7803948221567905</v>
+      </c>
+      <c r="N14">
+        <v>0.8951294706884227</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8072138829379444</v>
+        <v>0.807541817117665</v>
       </c>
       <c r="D15">
-        <v>0.8205054868696428</v>
+        <v>0.8208242333292555</v>
       </c>
       <c r="E15">
-        <v>0.8413728285564175</v>
+        <v>0.8416532153435639</v>
       </c>
       <c r="F15">
-        <v>0.7613622144368057</v>
+        <v>0.7617346068961195</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011968177050914</v>
+        <v>1.01201814014331</v>
       </c>
       <c r="J15">
-        <v>0.8420532870472233</v>
+        <v>0.842359771525458</v>
       </c>
       <c r="K15">
-        <v>0.8373826915921636</v>
+        <v>0.8376927143449004</v>
       </c>
       <c r="L15">
-        <v>0.8576977625482127</v>
+        <v>0.8579709806618521</v>
       </c>
       <c r="M15">
-        <v>0.7800349525008526</v>
+        <v>0.7803948221567905</v>
+      </c>
+      <c r="N15">
+        <v>0.8951294706884227</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8072138829379444</v>
+        <v>0.807541817117665</v>
       </c>
       <c r="D16">
-        <v>0.8205054868696428</v>
+        <v>0.8208242333292555</v>
       </c>
       <c r="E16">
-        <v>0.8413728285564175</v>
+        <v>0.8416532153435639</v>
       </c>
       <c r="F16">
-        <v>0.7613622144368057</v>
+        <v>0.7617346068961195</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.011968177050914</v>
+        <v>1.01201814014331</v>
       </c>
       <c r="J16">
-        <v>0.8420532870472233</v>
+        <v>0.842359771525458</v>
       </c>
       <c r="K16">
-        <v>0.8373826915921636</v>
+        <v>0.8376927143449004</v>
       </c>
       <c r="L16">
-        <v>0.8576977625482127</v>
+        <v>0.8579709806618521</v>
       </c>
       <c r="M16">
-        <v>0.7800349525008526</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7803948221567905</v>
+      </c>
+      <c r="N16">
+        <v>0.8951294706884227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8072138829379444</v>
+        <v>0.807541817117665</v>
       </c>
       <c r="D17">
-        <v>0.8205054868696428</v>
+        <v>0.8208242333292555</v>
       </c>
       <c r="E17">
-        <v>0.8413728285564175</v>
+        <v>0.8416532153435639</v>
       </c>
       <c r="F17">
-        <v>0.7613622144368057</v>
+        <v>0.7617346068961195</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.011968177050914</v>
+        <v>1.01201814014331</v>
       </c>
       <c r="J17">
-        <v>0.8420532870472233</v>
+        <v>0.842359771525458</v>
       </c>
       <c r="K17">
-        <v>0.8373826915921636</v>
+        <v>0.8376927143449004</v>
       </c>
       <c r="L17">
-        <v>0.8576977625482127</v>
+        <v>0.8579709806618521</v>
       </c>
       <c r="M17">
-        <v>0.7800349525008526</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7803948221567905</v>
+      </c>
+      <c r="N17">
+        <v>0.8951294706884227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8072138829379444</v>
+        <v>0.807541817117665</v>
       </c>
       <c r="D18">
-        <v>0.8205054868696428</v>
+        <v>0.8208242333292555</v>
       </c>
       <c r="E18">
-        <v>0.8413728285564175</v>
+        <v>0.8416532153435639</v>
       </c>
       <c r="F18">
-        <v>0.7613622144368057</v>
+        <v>0.7617346068961195</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011968177050914</v>
+        <v>1.01201814014331</v>
       </c>
       <c r="J18">
-        <v>0.8420532870472233</v>
+        <v>0.842359771525458</v>
       </c>
       <c r="K18">
-        <v>0.8373826915921636</v>
+        <v>0.8376927143449004</v>
       </c>
       <c r="L18">
-        <v>0.8576977625482127</v>
+        <v>0.8579709806618521</v>
       </c>
       <c r="M18">
-        <v>0.7800349525008526</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7803948221567905</v>
+      </c>
+      <c r="N18">
+        <v>0.8951294706884227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8072138829379444</v>
+        <v>0.807541817117665</v>
       </c>
       <c r="D19">
-        <v>0.8205054868696428</v>
+        <v>0.8208242333292555</v>
       </c>
       <c r="E19">
-        <v>0.8413728285564175</v>
+        <v>0.8416532153435639</v>
       </c>
       <c r="F19">
-        <v>0.7613622144368057</v>
+        <v>0.7617346068961195</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.011968177050914</v>
+        <v>1.01201814014331</v>
       </c>
       <c r="J19">
-        <v>0.8420532870472233</v>
+        <v>0.842359771525458</v>
       </c>
       <c r="K19">
-        <v>0.8373826915921636</v>
+        <v>0.8376927143449004</v>
       </c>
       <c r="L19">
-        <v>0.8576977625482127</v>
+        <v>0.8579709806618521</v>
       </c>
       <c r="M19">
-        <v>0.7800349525008526</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7803948221567905</v>
+      </c>
+      <c r="N19">
+        <v>0.8951294706884227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8072138829379444</v>
+        <v>0.807541817117665</v>
       </c>
       <c r="D20">
-        <v>0.8205054868696428</v>
+        <v>0.8208242333292555</v>
       </c>
       <c r="E20">
-        <v>0.8413728285564175</v>
+        <v>0.8416532153435639</v>
       </c>
       <c r="F20">
-        <v>0.7613622144368057</v>
+        <v>0.7617346068961195</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.011968177050914</v>
+        <v>1.01201814014331</v>
       </c>
       <c r="J20">
-        <v>0.8420532870472233</v>
+        <v>0.842359771525458</v>
       </c>
       <c r="K20">
-        <v>0.8373826915921636</v>
+        <v>0.8376927143449004</v>
       </c>
       <c r="L20">
-        <v>0.8576977625482127</v>
+        <v>0.8579709806618521</v>
       </c>
       <c r="M20">
-        <v>0.7800349525008526</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7803948221567905</v>
+      </c>
+      <c r="N20">
+        <v>0.8951294706884227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8072138829379444</v>
+        <v>0.807541817117665</v>
       </c>
       <c r="D21">
-        <v>0.8205054868696428</v>
+        <v>0.8208242333292555</v>
       </c>
       <c r="E21">
-        <v>0.8413728285564175</v>
+        <v>0.8416532153435639</v>
       </c>
       <c r="F21">
-        <v>0.7613622144368057</v>
+        <v>0.7617346068961195</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.011968177050914</v>
+        <v>1.01201814014331</v>
       </c>
       <c r="J21">
-        <v>0.8420532870472233</v>
+        <v>0.842359771525458</v>
       </c>
       <c r="K21">
-        <v>0.8373826915921636</v>
+        <v>0.8376927143449004</v>
       </c>
       <c r="L21">
-        <v>0.8576977625482127</v>
+        <v>0.8579709806618521</v>
       </c>
       <c r="M21">
-        <v>0.7800349525008526</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7803948221567905</v>
+      </c>
+      <c r="N21">
+        <v>0.8951294706884227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8072138829379444</v>
+        <v>0.807541817117665</v>
       </c>
       <c r="D22">
-        <v>0.8205054868696428</v>
+        <v>0.8208242333292555</v>
       </c>
       <c r="E22">
-        <v>0.8413728285564175</v>
+        <v>0.8416532153435639</v>
       </c>
       <c r="F22">
-        <v>0.7613622144368057</v>
+        <v>0.7617346068961195</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011968177050914</v>
+        <v>1.01201814014331</v>
       </c>
       <c r="J22">
-        <v>0.8420532870472233</v>
+        <v>0.842359771525458</v>
       </c>
       <c r="K22">
-        <v>0.8373826915921636</v>
+        <v>0.8376927143449004</v>
       </c>
       <c r="L22">
-        <v>0.8576977625482127</v>
+        <v>0.8579709806618521</v>
       </c>
       <c r="M22">
-        <v>0.7800349525008526</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7803948221567905</v>
+      </c>
+      <c r="N22">
+        <v>0.8951294706884227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8072138829379444</v>
+        <v>0.807541817117665</v>
       </c>
       <c r="D23">
-        <v>0.8205054868696428</v>
+        <v>0.8208242333292555</v>
       </c>
       <c r="E23">
-        <v>0.8413728285564175</v>
+        <v>0.8416532153435639</v>
       </c>
       <c r="F23">
-        <v>0.7613622144368057</v>
+        <v>0.7617346068961195</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.011968177050914</v>
+        <v>1.01201814014331</v>
       </c>
       <c r="J23">
-        <v>0.8420532870472233</v>
+        <v>0.842359771525458</v>
       </c>
       <c r="K23">
-        <v>0.8373826915921636</v>
+        <v>0.8376927143449004</v>
       </c>
       <c r="L23">
-        <v>0.8576977625482127</v>
+        <v>0.8579709806618521</v>
       </c>
       <c r="M23">
-        <v>0.7800349525008526</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7803948221567905</v>
+      </c>
+      <c r="N23">
+        <v>0.8951294706884227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8072138829379444</v>
+        <v>0.807541817117665</v>
       </c>
       <c r="D24">
-        <v>0.8205054868696428</v>
+        <v>0.8208242333292555</v>
       </c>
       <c r="E24">
-        <v>0.8413728285564175</v>
+        <v>0.8416532153435639</v>
       </c>
       <c r="F24">
-        <v>0.7613622144368057</v>
+        <v>0.7617346068961195</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.011968177050914</v>
+        <v>1.01201814014331</v>
       </c>
       <c r="J24">
-        <v>0.8420532870472233</v>
+        <v>0.842359771525458</v>
       </c>
       <c r="K24">
-        <v>0.8373826915921636</v>
+        <v>0.8376927143449004</v>
       </c>
       <c r="L24">
-        <v>0.8576977625482127</v>
+        <v>0.8579709806618521</v>
       </c>
       <c r="M24">
-        <v>0.7800349525008526</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7803948221567905</v>
+      </c>
+      <c r="N24">
+        <v>0.8951294706884227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8072138829379444</v>
+        <v>0.807541817117665</v>
       </c>
       <c r="D25">
-        <v>0.8205054868696428</v>
+        <v>0.8208242333292555</v>
       </c>
       <c r="E25">
-        <v>0.8413728285564175</v>
+        <v>0.8416532153435639</v>
       </c>
       <c r="F25">
-        <v>0.7613622144368057</v>
+        <v>0.7617346068961195</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.011968177050914</v>
+        <v>1.01201814014331</v>
       </c>
       <c r="J25">
-        <v>0.8420532870472233</v>
+        <v>0.842359771525458</v>
       </c>
       <c r="K25">
-        <v>0.8373826915921636</v>
+        <v>0.8376927143449004</v>
       </c>
       <c r="L25">
-        <v>0.8576977625482127</v>
+        <v>0.8579709806618521</v>
       </c>
       <c r="M25">
-        <v>0.7800349525008526</v>
+        <v>0.7803948221567905</v>
+      </c>
+      <c r="N25">
+        <v>0.8951294706884227</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_52/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.017355980857277</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.031862891052807</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.029812059226595</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.037725647846591</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.048250209037443</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.039029686233695</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.042895479239527</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.04087111934396</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.048683280852498</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.01606437397</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.02373010894239</v>
+      </c>
+      <c r="D3">
+        <v>1.037707594156782</v>
+      </c>
+      <c r="E3">
+        <v>1.035334448697774</v>
+      </c>
+      <c r="F3">
+        <v>1.043812476411609</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.049681984108455</v>
+      </c>
+      <c r="J3">
+        <v>1.043594126563361</v>
+      </c>
+      <c r="K3">
+        <v>1.047879703508305</v>
+      </c>
+      <c r="L3">
+        <v>1.045534331564062</v>
+      </c>
+      <c r="M3">
+        <v>1.053913855493148</v>
+      </c>
+      <c r="N3">
+        <v>1.017651929687226</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.027748111698423</v>
+      </c>
+      <c r="D4">
+        <v>1.041397353946977</v>
+      </c>
+      <c r="E4">
+        <v>1.038821609499459</v>
+      </c>
+      <c r="F4">
+        <v>1.047656755152921</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.050571420237251</v>
+      </c>
+      <c r="J4">
+        <v>1.04646769964103</v>
+      </c>
+      <c r="K4">
+        <v>1.051020559700688</v>
+      </c>
+      <c r="L4">
+        <v>1.048473025277083</v>
+      </c>
+      <c r="M4">
+        <v>1.057212115521371</v>
+      </c>
+      <c r="N4">
+        <v>1.018650514686048</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.02941300823216</v>
+      </c>
+      <c r="D5">
+        <v>1.042927499964199</v>
+      </c>
+      <c r="E5">
+        <v>1.040267937871114</v>
+      </c>
+      <c r="F5">
+        <v>1.049251384189834</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.050936769002367</v>
+      </c>
+      <c r="J5">
+        <v>1.04765745730143</v>
+      </c>
+      <c r="K5">
+        <v>1.052321706943839</v>
+      </c>
+      <c r="L5">
+        <v>1.049690450144409</v>
+      </c>
+      <c r="M5">
+        <v>1.058578991234377</v>
+      </c>
+      <c r="N5">
+        <v>1.01906374176117</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.029691162288257</v>
+      </c>
+      <c r="D6">
+        <v>1.043183213783628</v>
+      </c>
+      <c r="E6">
+        <v>1.040509655804937</v>
+      </c>
+      <c r="F6">
+        <v>1.049517898108094</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.050997618220485</v>
+      </c>
+      <c r="J6">
+        <v>1.04785617356861</v>
+      </c>
+      <c r="K6">
+        <v>1.052539070547319</v>
+      </c>
+      <c r="L6">
+        <v>1.049893828928381</v>
+      </c>
+      <c r="M6">
+        <v>1.058807365870772</v>
+      </c>
+      <c r="N6">
+        <v>1.019132746602208</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.027770451947151</v>
+      </c>
+      <c r="D7">
+        <v>1.041417881148161</v>
+      </c>
+      <c r="E7">
+        <v>1.038841011492115</v>
+      </c>
+      <c r="F7">
+        <v>1.047678145803626</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.05057633534854</v>
+      </c>
+      <c r="J7">
+        <v>1.046483668046926</v>
+      </c>
+      <c r="K7">
+        <v>1.051038020254086</v>
+      </c>
+      <c r="L7">
+        <v>1.048489362230508</v>
+      </c>
+      <c r="M7">
+        <v>1.057230456042204</v>
+      </c>
+      <c r="N7">
+        <v>1.018656061730319</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.019532958314695</v>
+      </c>
+      <c r="D8">
+        <v>1.033857861768084</v>
+      </c>
+      <c r="E8">
+        <v>1.031696823710431</v>
+      </c>
+      <c r="F8">
+        <v>1.039802915716116</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.048741931417087</v>
+      </c>
+      <c r="J8">
+        <v>1.04058933489411</v>
+      </c>
+      <c r="K8">
+        <v>1.044597935458172</v>
+      </c>
+      <c r="L8">
+        <v>1.042463898811324</v>
+      </c>
+      <c r="M8">
+        <v>1.050469428547014</v>
+      </c>
+      <c r="N8">
+        <v>1.016607010418877</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>1.004142190341867</v>
+      </c>
+      <c r="D9">
+        <v>1.0197799309076</v>
+      </c>
+      <c r="E9">
+        <v>1.018400803522263</v>
+      </c>
+      <c r="F9">
+        <v>1.025151179182505</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.045211684948882</v>
+      </c>
+      <c r="J9">
+        <v>1.029549520362082</v>
+      </c>
+      <c r="K9">
+        <v>1.032560041713995</v>
+      </c>
+      <c r="L9">
+        <v>1.03120223180485</v>
+      </c>
+      <c r="M9">
+        <v>1.0378489624301</v>
+      </c>
+      <c r="N9">
+        <v>1.012762798838341</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9932012187593405</v>
+      </c>
+      <c r="D10">
+        <v>1.009808705417081</v>
+      </c>
+      <c r="E10">
+        <v>1.008989347883515</v>
+      </c>
+      <c r="F10">
+        <v>1.014782183380735</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.042635994978012</v>
+      </c>
+      <c r="J10">
+        <v>1.021687202939822</v>
+      </c>
+      <c r="K10">
+        <v>1.024003090609141</v>
+      </c>
+      <c r="L10">
+        <v>1.023198171809029</v>
+      </c>
+      <c r="M10">
+        <v>1.028889573455936</v>
+      </c>
+      <c r="N10">
+        <v>1.01002154103914</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9882788601029459</v>
+      </c>
+      <c r="D11">
+        <v>1.005332422749209</v>
+      </c>
+      <c r="E11">
+        <v>1.004765973672018</v>
+      </c>
+      <c r="F11">
+        <v>1.010129316961804</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.041462414502503</v>
+      </c>
+      <c r="J11">
+        <v>1.018147514568294</v>
+      </c>
+      <c r="K11">
+        <v>1.020154473183602</v>
+      </c>
+      <c r="L11">
+        <v>1.019598566940983</v>
+      </c>
+      <c r="M11">
+        <v>1.024862704383507</v>
+      </c>
+      <c r="N11">
+        <v>1.008786781132715</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.986420457120542</v>
+      </c>
+      <c r="D12">
+        <v>1.003644008814621</v>
+      </c>
+      <c r="E12">
+        <v>1.003173216601142</v>
+      </c>
+      <c r="F12">
+        <v>1.008374588794657</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.04101720230537</v>
+      </c>
+      <c r="J12">
+        <v>1.016810857838421</v>
+      </c>
+      <c r="K12">
+        <v>1.018701726784527</v>
+      </c>
+      <c r="L12">
+        <v>1.018239874256864</v>
+      </c>
+      <c r="M12">
+        <v>1.023343084626418</v>
+      </c>
+      <c r="N12">
+        <v>1.008320437003785</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9868204881130503</v>
+      </c>
+      <c r="D13">
+        <v>1.004007375811358</v>
+      </c>
+      <c r="E13">
+        <v>1.003515984930281</v>
+      </c>
+      <c r="F13">
+        <v>1.0087522143527</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.041113131530101</v>
+      </c>
+      <c r="J13">
+        <v>1.017098590906235</v>
+      </c>
+      <c r="K13">
+        <v>1.019014424090397</v>
+      </c>
+      <c r="L13">
+        <v>1.018532324155786</v>
+      </c>
+      <c r="M13">
+        <v>1.023670157565637</v>
+      </c>
+      <c r="N13">
+        <v>1.008420826790255</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9881258701992007</v>
+      </c>
+      <c r="D14">
+        <v>1.005193394278494</v>
+      </c>
+      <c r="E14">
+        <v>1.004634816404169</v>
+      </c>
+      <c r="F14">
+        <v>1.009984822120572</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.041425805974041</v>
+      </c>
+      <c r="J14">
+        <v>1.018037481499745</v>
+      </c>
+      <c r="K14">
+        <v>1.020034872146423</v>
+      </c>
+      <c r="L14">
+        <v>1.019486707886907</v>
+      </c>
+      <c r="M14">
+        <v>1.024737589480068</v>
+      </c>
+      <c r="N14">
+        <v>1.008748393256482</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9889261098684222</v>
+      </c>
+      <c r="D15">
+        <v>1.005920671076867</v>
+      </c>
+      <c r="E15">
+        <v>1.005320928655737</v>
+      </c>
+      <c r="F15">
+        <v>1.010740706073141</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.041617206762832</v>
+      </c>
+      <c r="J15">
+        <v>1.01861301767127</v>
+      </c>
+      <c r="K15">
+        <v>1.020660477384009</v>
+      </c>
+      <c r="L15">
+        <v>1.020071819028568</v>
+      </c>
+      <c r="M15">
+        <v>1.025392053212664</v>
+      </c>
+      <c r="N15">
+        <v>1.008949181001914</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9935238184925597</v>
+      </c>
+      <c r="D16">
+        <v>1.010102282087388</v>
+      </c>
+      <c r="E16">
+        <v>1.009266372712106</v>
+      </c>
+      <c r="F16">
+        <v>1.015087381936005</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.042712609166873</v>
+      </c>
+      <c r="J16">
+        <v>1.021919143095542</v>
+      </c>
+      <c r="K16">
+        <v>1.024255352108546</v>
+      </c>
+      <c r="L16">
+        <v>1.023434119195491</v>
+      </c>
+      <c r="M16">
+        <v>1.029153575578957</v>
+      </c>
+      <c r="N16">
+        <v>1.010102438110135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9963568375589485</v>
+      </c>
+      <c r="D17">
+        <v>1.012681544780185</v>
+      </c>
+      <c r="E17">
+        <v>1.011700402006242</v>
+      </c>
+      <c r="F17">
+        <v>1.017768974505461</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.043383759976626</v>
+      </c>
+      <c r="J17">
+        <v>1.023955740625657</v>
+      </c>
+      <c r="K17">
+        <v>1.026470815097963</v>
+      </c>
+      <c r="L17">
+        <v>1.025506344462721</v>
+      </c>
+      <c r="M17">
+        <v>1.031472460729082</v>
+      </c>
+      <c r="N17">
+        <v>1.010812703234881</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9979916188236825</v>
+      </c>
+      <c r="D18">
+        <v>1.014170812392872</v>
+      </c>
+      <c r="E18">
+        <v>1.013105963070291</v>
+      </c>
+      <c r="F18">
+        <v>1.019317515134646</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.043769645739729</v>
+      </c>
+      <c r="J18">
+        <v>1.025130715686975</v>
+      </c>
+      <c r="K18">
+        <v>1.027749341590561</v>
+      </c>
+      <c r="L18">
+        <v>1.026702241288882</v>
+      </c>
+      <c r="M18">
+        <v>1.032810930881085</v>
+      </c>
+      <c r="N18">
+        <v>1.01122241704432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9985461041339571</v>
+      </c>
+      <c r="D19">
+        <v>1.014676094649388</v>
+      </c>
+      <c r="E19">
+        <v>1.013582870291968</v>
+      </c>
+      <c r="F19">
+        <v>1.019842939701818</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.043900290816311</v>
+      </c>
+      <c r="J19">
+        <v>1.025529201465614</v>
+      </c>
+      <c r="K19">
+        <v>1.028183007124633</v>
+      </c>
+      <c r="L19">
+        <v>1.027107884708299</v>
+      </c>
+      <c r="M19">
+        <v>1.033264972878024</v>
+      </c>
+      <c r="N19">
+        <v>1.011361358360178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9960547246859049</v>
+      </c>
+      <c r="D20">
+        <v>1.012406396670164</v>
+      </c>
+      <c r="E20">
+        <v>1.01144073112501</v>
+      </c>
+      <c r="F20">
+        <v>1.017482890701206</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.043312333231697</v>
+      </c>
+      <c r="J20">
+        <v>1.023738581808854</v>
+      </c>
+      <c r="K20">
+        <v>1.026234546954719</v>
+      </c>
+      <c r="L20">
+        <v>1.025285348570764</v>
+      </c>
+      <c r="M20">
+        <v>1.031225136181541</v>
+      </c>
+      <c r="N20">
+        <v>1.010736974987728</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9877423156900909</v>
+      </c>
+      <c r="D21">
+        <v>1.004844867623356</v>
+      </c>
+      <c r="E21">
+        <v>1.004306026136987</v>
+      </c>
+      <c r="F21">
+        <v>1.009622596641477</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.041333992231525</v>
+      </c>
+      <c r="J21">
+        <v>1.017761618212394</v>
+      </c>
+      <c r="K21">
+        <v>1.019735030188784</v>
+      </c>
+      <c r="L21">
+        <v>1.019206276185125</v>
+      </c>
+      <c r="M21">
+        <v>1.024423930779624</v>
+      </c>
+      <c r="N21">
+        <v>1.00865215010001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9823409898313765</v>
+      </c>
+      <c r="D22">
+        <v>0.9999407225155433</v>
+      </c>
+      <c r="E22">
+        <v>0.9996802449478572</v>
+      </c>
+      <c r="F22">
+        <v>1.004526381662154</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.040036061425936</v>
+      </c>
+      <c r="J22">
+        <v>1.013876309000708</v>
+      </c>
+      <c r="K22">
+        <v>1.015513353795944</v>
+      </c>
+      <c r="L22">
+        <v>1.015258038910692</v>
+      </c>
+      <c r="M22">
+        <v>1.020008700201726</v>
+      </c>
+      <c r="N22">
+        <v>1.007296491921618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.985221738128261</v>
+      </c>
+      <c r="D23">
+        <v>1.002555395580744</v>
+      </c>
+      <c r="E23">
+        <v>1.002146355013376</v>
+      </c>
+      <c r="F23">
+        <v>1.007243300476649</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.040729438072753</v>
+      </c>
+      <c r="J23">
+        <v>1.015948614661558</v>
+      </c>
+      <c r="K23">
+        <v>1.017764756881608</v>
+      </c>
+      <c r="L23">
+        <v>1.01736358306149</v>
+      </c>
+      <c r="M23">
+        <v>1.022363099633425</v>
+      </c>
+      <c r="N23">
+        <v>1.008019591843005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9961912909305587</v>
+      </c>
+      <c r="D24">
+        <v>1.012530771006306</v>
+      </c>
+      <c r="E24">
+        <v>1.01155810886992</v>
+      </c>
+      <c r="F24">
+        <v>1.017612207681895</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.043344625123325</v>
+      </c>
+      <c r="J24">
+        <v>1.023836746398555</v>
+      </c>
+      <c r="K24">
+        <v>1.026341348621506</v>
+      </c>
+      <c r="L24">
+        <v>1.025385246534816</v>
+      </c>
+      <c r="M24">
+        <v>1.031336934933487</v>
+      </c>
+      <c r="N24">
+        <v>1.010771207412668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>1.008233730147933</v>
+      </c>
+      <c r="D25">
+        <v>1.023516566145546</v>
+      </c>
+      <c r="E25">
+        <v>1.021928942524469</v>
+      </c>
+      <c r="F25">
+        <v>1.029038613941978</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.046161764416448</v>
+      </c>
+      <c r="J25">
+        <v>1.032487138557393</v>
+      </c>
+      <c r="K25">
+        <v>1.035760465546072</v>
+      </c>
+      <c r="L25">
+        <v>1.034196116933354</v>
+      </c>
+      <c r="M25">
+        <v>1.041202267334129</v>
+      </c>
+      <c r="N25">
+        <v>1.013786378467033</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_52/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.017355980857277</v>
+        <v>1.0606410827001</v>
       </c>
       <c r="D2">
-        <v>1.031862891052807</v>
+        <v>1.070574647351912</v>
       </c>
       <c r="E2">
-        <v>1.029812059226595</v>
+        <v>1.066926387837632</v>
       </c>
       <c r="F2">
-        <v>1.037725647846591</v>
+        <v>1.078938631139831</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048250209037443</v>
+        <v>1.039818476757014</v>
       </c>
       <c r="J2">
-        <v>1.039029686233695</v>
+        <v>1.06562088253957</v>
       </c>
       <c r="K2">
-        <v>1.042895479239527</v>
+        <v>1.073274120917788</v>
       </c>
       <c r="L2">
-        <v>1.04087111934396</v>
+        <v>1.069635624528051</v>
       </c>
       <c r="M2">
-        <v>1.048683280852498</v>
+        <v>1.08161599103682</v>
       </c>
       <c r="N2">
-        <v>1.01606437397</v>
+        <v>1.025497224839458</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.02373010894239</v>
+        <v>1.061957523776998</v>
       </c>
       <c r="D3">
-        <v>1.037707594156782</v>
+        <v>1.071834941636991</v>
       </c>
       <c r="E3">
-        <v>1.035334448697774</v>
+        <v>1.068118520191134</v>
       </c>
       <c r="F3">
-        <v>1.043812476411609</v>
+        <v>1.08026371582058</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049681984108455</v>
+        <v>1.040030688710887</v>
       </c>
       <c r="J3">
-        <v>1.043594126563361</v>
+        <v>1.066589301096673</v>
       </c>
       <c r="K3">
-        <v>1.047879703508305</v>
+        <v>1.074349705372908</v>
       </c>
       <c r="L3">
-        <v>1.045534331564062</v>
+        <v>1.070642505546355</v>
       </c>
       <c r="M3">
-        <v>1.053913855493148</v>
+        <v>1.082757817961417</v>
       </c>
       <c r="N3">
-        <v>1.017651929687226</v>
+        <v>1.025828041571685</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.027748111698423</v>
+        <v>1.062808820180296</v>
       </c>
       <c r="D4">
-        <v>1.041397353946977</v>
+        <v>1.072650234621578</v>
       </c>
       <c r="E4">
-        <v>1.038821609499459</v>
+        <v>1.068889752340983</v>
       </c>
       <c r="F4">
-        <v>1.047656755152921</v>
+        <v>1.081121141640002</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050571420237251</v>
+        <v>1.040166259678381</v>
       </c>
       <c r="J4">
-        <v>1.04646769964103</v>
+        <v>1.067214900441534</v>
       </c>
       <c r="K4">
-        <v>1.051020559700688</v>
+        <v>1.075044916158727</v>
       </c>
       <c r="L4">
-        <v>1.048473025277083</v>
+        <v>1.071293292057346</v>
       </c>
       <c r="M4">
-        <v>1.057212115521371</v>
+        <v>1.08349611116963</v>
       </c>
       <c r="N4">
-        <v>1.018650514686048</v>
+        <v>1.026041548570605</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.02941300823216</v>
+        <v>1.063166581838047</v>
       </c>
       <c r="D5">
-        <v>1.042927499964199</v>
+        <v>1.072992938063536</v>
       </c>
       <c r="E5">
-        <v>1.040267937871114</v>
+        <v>1.069213943002508</v>
       </c>
       <c r="F5">
-        <v>1.049251384189834</v>
+        <v>1.081481607924022</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050936769002367</v>
+        <v>1.040222836582019</v>
       </c>
       <c r="J5">
-        <v>1.04765745730143</v>
+        <v>1.067477657424021</v>
       </c>
       <c r="K5">
-        <v>1.052321706943839</v>
+        <v>1.075337002106305</v>
       </c>
       <c r="L5">
-        <v>1.049690450144409</v>
+        <v>1.071566709384516</v>
       </c>
       <c r="M5">
-        <v>1.058578991234377</v>
+        <v>1.083806361522915</v>
       </c>
       <c r="N5">
-        <v>1.01906374176117</v>
+        <v>1.026131175008608</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.029691162288257</v>
+        <v>1.063226644456891</v>
       </c>
       <c r="D6">
-        <v>1.043183213783628</v>
+        <v>1.073050476872015</v>
       </c>
       <c r="E6">
-        <v>1.040509655804937</v>
+        <v>1.069268374035759</v>
       </c>
       <c r="F6">
-        <v>1.049517898108094</v>
+        <v>1.081542132139438</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050997618220485</v>
+        <v>1.04023231164596</v>
       </c>
       <c r="J6">
-        <v>1.04785617356861</v>
+        <v>1.067521761173553</v>
       </c>
       <c r="K6">
-        <v>1.052539070547319</v>
+        <v>1.075386034094555</v>
       </c>
       <c r="L6">
-        <v>1.049893828928381</v>
+        <v>1.071612607254647</v>
       </c>
       <c r="M6">
-        <v>1.058807365870772</v>
+        <v>1.083858446479552</v>
       </c>
       <c r="N6">
-        <v>1.019132746602208</v>
+        <v>1.026146215964834</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.027770451947151</v>
+        <v>1.062813601089661</v>
       </c>
       <c r="D7">
-        <v>1.041417881148161</v>
+        <v>1.072654814018249</v>
       </c>
       <c r="E7">
-        <v>1.038841011492115</v>
+        <v>1.068894084328454</v>
       </c>
       <c r="F7">
-        <v>1.047678145803626</v>
+        <v>1.081125958187223</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05057633534854</v>
+        <v>1.040167017300196</v>
       </c>
       <c r="J7">
-        <v>1.046483668046926</v>
+        <v>1.067218412373164</v>
       </c>
       <c r="K7">
-        <v>1.051038020254086</v>
+        <v>1.075048819732495</v>
       </c>
       <c r="L7">
-        <v>1.048489362230508</v>
+        <v>1.071296946151462</v>
       </c>
       <c r="M7">
-        <v>1.057230456042204</v>
+        <v>1.083500257250446</v>
       </c>
       <c r="N7">
-        <v>1.018656061730319</v>
+        <v>1.026042746680987</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.019532958314695</v>
+        <v>1.06108609164373</v>
       </c>
       <c r="D8">
-        <v>1.033857861768084</v>
+        <v>1.07100061300909</v>
       </c>
       <c r="E8">
-        <v>1.031696823710431</v>
+        <v>1.06732930848352</v>
       </c>
       <c r="F8">
-        <v>1.039802915716116</v>
+        <v>1.079386449797063</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048741931417087</v>
+        <v>1.039890556246009</v>
       </c>
       <c r="J8">
-        <v>1.04058933489411</v>
+        <v>1.065948379138838</v>
       </c>
       <c r="K8">
-        <v>1.044597935458172</v>
+        <v>1.073637779357987</v>
       </c>
       <c r="L8">
-        <v>1.042463898811324</v>
+        <v>1.069976057699553</v>
       </c>
       <c r="M8">
-        <v>1.050469428547014</v>
+        <v>1.082001991119899</v>
       </c>
       <c r="N8">
-        <v>1.016607010418877</v>
+        <v>1.025609140890756</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.004142190341867</v>
+        <v>1.0580377999081</v>
       </c>
       <c r="D9">
-        <v>1.0197799309076</v>
+        <v>1.068084039768255</v>
       </c>
       <c r="E9">
-        <v>1.018400803522263</v>
+        <v>1.064570666071363</v>
       </c>
       <c r="F9">
-        <v>1.025151179182505</v>
+        <v>1.07632114959655</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045211684948882</v>
+        <v>1.039390015398873</v>
       </c>
       <c r="J9">
-        <v>1.029549520362082</v>
+        <v>1.063702416742467</v>
       </c>
       <c r="K9">
-        <v>1.032560041713995</v>
+        <v>1.071145388832206</v>
       </c>
       <c r="L9">
-        <v>1.03120223180485</v>
+        <v>1.067642775391619</v>
       </c>
       <c r="M9">
-        <v>1.0378489624301</v>
+        <v>1.079357571413789</v>
       </c>
       <c r="N9">
-        <v>1.012762798838341</v>
+        <v>1.024840804710559</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9932012187593405</v>
+        <v>1.056002573140467</v>
       </c>
       <c r="D10">
-        <v>1.009808705417081</v>
+        <v>1.066138378430726</v>
       </c>
       <c r="E10">
-        <v>1.008989347883515</v>
+        <v>1.06273054489967</v>
       </c>
       <c r="F10">
-        <v>1.014782183380735</v>
+        <v>1.074277401279447</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042635994978012</v>
+        <v>1.039047293499855</v>
       </c>
       <c r="J10">
-        <v>1.021687202939822</v>
+        <v>1.062199592193636</v>
       </c>
       <c r="K10">
-        <v>1.024003090609141</v>
+        <v>1.069479642691176</v>
       </c>
       <c r="L10">
-        <v>1.023198171809029</v>
+        <v>1.066083280377605</v>
       </c>
       <c r="M10">
-        <v>1.028889573455936</v>
+        <v>1.077591591613567</v>
       </c>
       <c r="N10">
-        <v>1.01002154103914</v>
+        <v>1.024325671466603</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9882788601029459</v>
+        <v>1.055120531129342</v>
       </c>
       <c r="D11">
-        <v>1.005332422749209</v>
+        <v>1.065295545081883</v>
       </c>
       <c r="E11">
-        <v>1.004765973672018</v>
+        <v>1.061933475194745</v>
       </c>
       <c r="F11">
-        <v>1.010129316961804</v>
+        <v>1.073392345759836</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041462414502503</v>
+        <v>1.038896742442051</v>
       </c>
       <c r="J11">
-        <v>1.018147514568294</v>
+        <v>1.061547513114426</v>
       </c>
       <c r="K11">
-        <v>1.020154473183602</v>
+        <v>1.068757337824279</v>
       </c>
       <c r="L11">
-        <v>1.019598566940983</v>
+        <v>1.065407028477327</v>
       </c>
       <c r="M11">
-        <v>1.024862704383507</v>
+        <v>1.076826148518496</v>
       </c>
       <c r="N11">
-        <v>1.008786781132715</v>
+        <v>1.024101913862449</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.986420457120542</v>
+        <v>1.054792780806825</v>
       </c>
       <c r="D12">
-        <v>1.003644008814621</v>
+        <v>1.064982423499641</v>
       </c>
       <c r="E12">
-        <v>1.003173216601142</v>
+        <v>1.061637362203196</v>
       </c>
       <c r="F12">
-        <v>1.008374588794657</v>
+        <v>1.073063578404667</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04101720230537</v>
+        <v>1.038840497331169</v>
       </c>
       <c r="J12">
-        <v>1.016810857838421</v>
+        <v>1.06130509689753</v>
       </c>
       <c r="K12">
-        <v>1.018701726784527</v>
+        <v>1.068488884540296</v>
       </c>
       <c r="L12">
-        <v>1.018239874256864</v>
+        <v>1.065155688384521</v>
       </c>
       <c r="M12">
-        <v>1.023343084626418</v>
+        <v>1.076541711260957</v>
       </c>
       <c r="N12">
-        <v>1.008320437003785</v>
+        <v>1.024018694095158</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9868204881130503</v>
+        <v>1.054863089889968</v>
       </c>
       <c r="D13">
-        <v>1.004007375811358</v>
+        <v>1.065049591717781</v>
       </c>
       <c r="E13">
-        <v>1.003515984930281</v>
+        <v>1.061700881566263</v>
       </c>
       <c r="F13">
-        <v>1.0087522143527</v>
+        <v>1.073134101003381</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041113131530101</v>
+        <v>1.038852576759797</v>
       </c>
       <c r="J13">
-        <v>1.017098590906235</v>
+        <v>1.061357105320886</v>
       </c>
       <c r="K13">
-        <v>1.019014424090397</v>
+        <v>1.068546475837947</v>
       </c>
       <c r="L13">
-        <v>1.018532324155786</v>
+        <v>1.065209608521007</v>
       </c>
       <c r="M13">
-        <v>1.023670157565637</v>
+        <v>1.076602729390325</v>
       </c>
       <c r="N13">
-        <v>1.008420826790255</v>
+        <v>1.024036549838373</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9881258701992007</v>
+        <v>1.055093441670679</v>
       </c>
       <c r="D14">
-        <v>1.005193394278494</v>
+        <v>1.065269663510593</v>
       </c>
       <c r="E14">
-        <v>1.004634816404169</v>
+        <v>1.061908999354373</v>
       </c>
       <c r="F14">
-        <v>1.009984822120572</v>
+        <v>1.073365170141614</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041425805974041</v>
+        <v>1.038892099811997</v>
       </c>
       <c r="J14">
-        <v>1.018037481499745</v>
+        <v>1.061527479112602</v>
       </c>
       <c r="K14">
-        <v>1.020034872146423</v>
+        <v>1.068735150614086</v>
       </c>
       <c r="L14">
-        <v>1.019486707886907</v>
+        <v>1.065386255703325</v>
       </c>
       <c r="M14">
-        <v>1.024737589480068</v>
+        <v>1.076802639263267</v>
       </c>
       <c r="N14">
-        <v>1.008748393256482</v>
+        <v>1.024095037062447</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9889261098684222</v>
+        <v>1.05523535289396</v>
       </c>
       <c r="D15">
-        <v>1.005920671076867</v>
+        <v>1.065405249519308</v>
       </c>
       <c r="E15">
-        <v>1.005320928655737</v>
+        <v>1.062037221432189</v>
       </c>
       <c r="F15">
-        <v>1.010740706073141</v>
+        <v>1.073507536931711</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041617206762832</v>
+        <v>1.038916408348558</v>
       </c>
       <c r="J15">
-        <v>1.01861301767127</v>
+        <v>1.061632424779348</v>
       </c>
       <c r="K15">
-        <v>1.020660477384009</v>
+        <v>1.068851378464558</v>
       </c>
       <c r="L15">
-        <v>1.020071819028568</v>
+        <v>1.06549507389984</v>
       </c>
       <c r="M15">
-        <v>1.025392053212664</v>
+        <v>1.076925794656283</v>
       </c>
       <c r="N15">
-        <v>1.008949181001914</v>
+        <v>1.024131058869863</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9935238184925597</v>
+        <v>1.056061094673141</v>
       </c>
       <c r="D16">
-        <v>1.010102282087388</v>
+        <v>1.066194306867345</v>
       </c>
       <c r="E16">
-        <v>1.009266372712106</v>
+        <v>1.062783437530159</v>
       </c>
       <c r="F16">
-        <v>1.015087381936005</v>
+        <v>1.074336137119031</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042712609166873</v>
+        <v>1.039057239715616</v>
       </c>
       <c r="J16">
-        <v>1.021919143095542</v>
+        <v>1.062242839936814</v>
       </c>
       <c r="K16">
-        <v>1.024255352108546</v>
+        <v>1.069527557819846</v>
       </c>
       <c r="L16">
-        <v>1.023434119195491</v>
+        <v>1.066128140101279</v>
       </c>
       <c r="M16">
-        <v>1.029153575578957</v>
+        <v>1.077642375228134</v>
       </c>
       <c r="N16">
-        <v>1.010102438110135</v>
+        <v>1.024340506670593</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9963568375589485</v>
+        <v>1.056578850154322</v>
       </c>
       <c r="D17">
-        <v>1.012681544780185</v>
+        <v>1.066689165897109</v>
       </c>
       <c r="E17">
-        <v>1.011700402006242</v>
+        <v>1.063251440745199</v>
       </c>
       <c r="F17">
-        <v>1.017768974505461</v>
+        <v>1.074855867184014</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043383759976626</v>
+        <v>1.039145003345775</v>
       </c>
       <c r="J17">
-        <v>1.023955740625657</v>
+        <v>1.062625374887286</v>
       </c>
       <c r="K17">
-        <v>1.026470815097963</v>
+        <v>1.069951430529569</v>
       </c>
       <c r="L17">
-        <v>1.025506344462721</v>
+        <v>1.066524981418957</v>
       </c>
       <c r="M17">
-        <v>1.031472460729082</v>
+        <v>1.078091661044999</v>
       </c>
       <c r="N17">
-        <v>1.010812703234881</v>
+        <v>1.024471699339413</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9979916188236825</v>
+        <v>1.056880773635306</v>
       </c>
       <c r="D18">
-        <v>1.014170812392872</v>
+        <v>1.066977775333301</v>
       </c>
       <c r="E18">
-        <v>1.013105963070291</v>
+        <v>1.063524391798314</v>
       </c>
       <c r="F18">
-        <v>1.019317515134646</v>
+        <v>1.07515900761981</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043769645739729</v>
+        <v>1.039195986969884</v>
       </c>
       <c r="J18">
-        <v>1.025130715686975</v>
+        <v>1.062848371358565</v>
       </c>
       <c r="K18">
-        <v>1.027749341590561</v>
+        <v>1.070198569538573</v>
       </c>
       <c r="L18">
-        <v>1.026702241288882</v>
+        <v>1.066756357851499</v>
       </c>
       <c r="M18">
-        <v>1.032810930881085</v>
+        <v>1.078353648531849</v>
       </c>
       <c r="N18">
-        <v>1.01122241704432</v>
+        <v>1.024548154175148</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9985461041339571</v>
+        <v>1.056983709223032</v>
       </c>
       <c r="D19">
-        <v>1.014676094649388</v>
+        <v>1.067076178115645</v>
       </c>
       <c r="E19">
-        <v>1.013582870291968</v>
+        <v>1.063617456511988</v>
       </c>
       <c r="F19">
-        <v>1.019842939701818</v>
+        <v>1.075262369197813</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043900290816311</v>
+        <v>1.03921333590764</v>
       </c>
       <c r="J19">
-        <v>1.025529201465614</v>
+        <v>1.062924385477539</v>
       </c>
       <c r="K19">
-        <v>1.028183007124633</v>
+        <v>1.070282820890249</v>
       </c>
       <c r="L19">
-        <v>1.027107884708299</v>
+        <v>1.0668352353075</v>
       </c>
       <c r="M19">
-        <v>1.033264972878024</v>
+        <v>1.078442967149806</v>
       </c>
       <c r="N19">
-        <v>1.011361358360178</v>
+        <v>1.024574211852478</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9960547246859049</v>
+        <v>1.05652330763178</v>
       </c>
       <c r="D20">
-        <v>1.012406396670164</v>
+        <v>1.066636075692907</v>
       </c>
       <c r="E20">
-        <v>1.01144073112501</v>
+        <v>1.063201231276332</v>
       </c>
       <c r="F20">
-        <v>1.017482890701206</v>
+        <v>1.074800106056821</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043312333231697</v>
+        <v>1.039135608598342</v>
       </c>
       <c r="J20">
-        <v>1.023738581808854</v>
+        <v>1.062584345943302</v>
       </c>
       <c r="K20">
-        <v>1.026234546954719</v>
+        <v>1.069905963238408</v>
       </c>
       <c r="L20">
-        <v>1.025285348570764</v>
+        <v>1.066482413885855</v>
       </c>
       <c r="M20">
-        <v>1.031225136181541</v>
+        <v>1.078043464537223</v>
       </c>
       <c r="N20">
-        <v>1.010736974987728</v>
+        <v>1.024457630609189</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9877423156900909</v>
+        <v>1.055025612176505</v>
       </c>
       <c r="D21">
-        <v>1.004844867623356</v>
+        <v>1.06520485941824</v>
       </c>
       <c r="E21">
-        <v>1.004306026136987</v>
+        <v>1.061847715141674</v>
       </c>
       <c r="F21">
-        <v>1.009622596641477</v>
+        <v>1.073297126573407</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041333992231525</v>
+        <v>1.038880470200792</v>
       </c>
       <c r="J21">
-        <v>1.017761618212394</v>
+        <v>1.061477313959091</v>
       </c>
       <c r="K21">
-        <v>1.019735030188784</v>
+        <v>1.068679594955739</v>
       </c>
       <c r="L21">
-        <v>1.019206276185125</v>
+        <v>1.065334241674601</v>
       </c>
       <c r="M21">
-        <v>1.024423930779624</v>
+        <v>1.076743774059914</v>
       </c>
       <c r="N21">
-        <v>1.00865215010001</v>
+        <v>1.024077816971934</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9823409898313765</v>
+        <v>1.054083251507021</v>
       </c>
       <c r="D22">
-        <v>0.9999407225155433</v>
+        <v>1.064304672750608</v>
       </c>
       <c r="E22">
-        <v>0.9996802449478572</v>
+        <v>1.06099643927612</v>
       </c>
       <c r="F22">
-        <v>1.004526381662154</v>
+        <v>1.072352035956856</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040036061425936</v>
+        <v>1.03871818112672</v>
       </c>
       <c r="J22">
-        <v>1.013876309000708</v>
+        <v>1.060780091487683</v>
       </c>
       <c r="K22">
-        <v>1.015513353795944</v>
+        <v>1.067907618147116</v>
       </c>
       <c r="L22">
-        <v>1.015258038910692</v>
+        <v>1.064611470851922</v>
       </c>
       <c r="M22">
-        <v>1.020008700201726</v>
+        <v>1.075925925066907</v>
       </c>
       <c r="N22">
-        <v>1.007296491921618</v>
+        <v>1.023838398029502</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.985221738128261</v>
+        <v>1.054582882479006</v>
       </c>
       <c r="D23">
-        <v>1.002555395580744</v>
+        <v>1.064781910567793</v>
       </c>
       <c r="E23">
-        <v>1.002146355013376</v>
+        <v>1.061447742983705</v>
       </c>
       <c r="F23">
-        <v>1.007243300476649</v>
+        <v>1.072853057745253</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040729438072753</v>
+        <v>1.038804391450264</v>
       </c>
       <c r="J23">
-        <v>1.015948614661558</v>
+        <v>1.061149815803738</v>
       </c>
       <c r="K23">
-        <v>1.017764756881608</v>
+        <v>1.068316944953185</v>
       </c>
       <c r="L23">
-        <v>1.01736358306149</v>
+        <v>1.064994708669742</v>
       </c>
       <c r="M23">
-        <v>1.022363099633425</v>
+        <v>1.076359547976947</v>
       </c>
       <c r="N23">
-        <v>1.008019591843005</v>
+        <v>1.023965377119397</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9961912909305587</v>
+        <v>1.056548405137042</v>
       </c>
       <c r="D24">
-        <v>1.012530771006306</v>
+        <v>1.066660064974262</v>
       </c>
       <c r="E24">
-        <v>1.01155810886992</v>
+        <v>1.063223918858378</v>
       </c>
       <c r="F24">
-        <v>1.017612207681895</v>
+        <v>1.074825302138695</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043344625123325</v>
+        <v>1.039139854321201</v>
       </c>
       <c r="J24">
-        <v>1.023836746398555</v>
+        <v>1.062602885557672</v>
       </c>
       <c r="K24">
-        <v>1.026341348621506</v>
+        <v>1.069926508255274</v>
       </c>
       <c r="L24">
-        <v>1.025385246534816</v>
+        <v>1.066501648613358</v>
       </c>
       <c r="M24">
-        <v>1.031336934933487</v>
+        <v>1.078065242690986</v>
       </c>
       <c r="N24">
-        <v>1.010771207412668</v>
+        <v>1.02446398787175</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008233730147933</v>
+        <v>1.058826375489966</v>
       </c>
       <c r="D25">
-        <v>1.023516566145546</v>
+        <v>1.068838257307755</v>
       </c>
       <c r="E25">
-        <v>1.021928942524469</v>
+        <v>1.065284011304891</v>
       </c>
       <c r="F25">
-        <v>1.029038613941978</v>
+        <v>1.077113628407384</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046161764416448</v>
+        <v>1.039521006142723</v>
       </c>
       <c r="J25">
-        <v>1.032487138557393</v>
+        <v>1.064284014093119</v>
       </c>
       <c r="K25">
-        <v>1.035760465546072</v>
+        <v>1.071790452586833</v>
       </c>
       <c r="L25">
-        <v>1.034196116933354</v>
+        <v>1.068246675161169</v>
       </c>
       <c r="M25">
-        <v>1.041202267334129</v>
+        <v>1.080041740646256</v>
       </c>
       <c r="N25">
-        <v>1.013786378467033</v>
+        <v>1.025039947834108</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_52/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.0606410827001</v>
+        <v>1.017355980857277</v>
       </c>
       <c r="D2">
-        <v>1.070574647351912</v>
+        <v>1.031862891052807</v>
       </c>
       <c r="E2">
-        <v>1.066926387837632</v>
+        <v>1.029812059226594</v>
       </c>
       <c r="F2">
-        <v>1.078938631139831</v>
+        <v>1.03772564784659</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039818476757014</v>
+        <v>1.048250209037443</v>
       </c>
       <c r="J2">
-        <v>1.06562088253957</v>
+        <v>1.039029686233695</v>
       </c>
       <c r="K2">
-        <v>1.073274120917788</v>
+        <v>1.042895479239527</v>
       </c>
       <c r="L2">
-        <v>1.069635624528051</v>
+        <v>1.040871119343959</v>
       </c>
       <c r="M2">
-        <v>1.08161599103682</v>
+        <v>1.048683280852497</v>
       </c>
       <c r="N2">
-        <v>1.025497224839458</v>
+        <v>1.01606437397</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.061957523776998</v>
+        <v>1.02373010894239</v>
       </c>
       <c r="D3">
-        <v>1.071834941636991</v>
+        <v>1.037707594156781</v>
       </c>
       <c r="E3">
-        <v>1.068118520191134</v>
+        <v>1.035334448697774</v>
       </c>
       <c r="F3">
-        <v>1.08026371582058</v>
+        <v>1.043812476411608</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040030688710887</v>
+        <v>1.049681984108455</v>
       </c>
       <c r="J3">
-        <v>1.066589301096673</v>
+        <v>1.04359412656336</v>
       </c>
       <c r="K3">
-        <v>1.074349705372908</v>
+        <v>1.047879703508304</v>
       </c>
       <c r="L3">
-        <v>1.070642505546355</v>
+        <v>1.045534331564061</v>
       </c>
       <c r="M3">
-        <v>1.082757817961417</v>
+        <v>1.053913855493148</v>
       </c>
       <c r="N3">
-        <v>1.025828041571685</v>
+        <v>1.017651929687226</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.062808820180296</v>
+        <v>1.027748111698423</v>
       </c>
       <c r="D4">
-        <v>1.072650234621578</v>
+        <v>1.041397353946977</v>
       </c>
       <c r="E4">
-        <v>1.068889752340983</v>
+        <v>1.038821609499459</v>
       </c>
       <c r="F4">
-        <v>1.081121141640002</v>
+        <v>1.047656755152921</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040166259678381</v>
+        <v>1.050571420237251</v>
       </c>
       <c r="J4">
-        <v>1.067214900441534</v>
+        <v>1.04646769964103</v>
       </c>
       <c r="K4">
-        <v>1.075044916158727</v>
+        <v>1.051020559700688</v>
       </c>
       <c r="L4">
-        <v>1.071293292057346</v>
+        <v>1.048473025277083</v>
       </c>
       <c r="M4">
-        <v>1.08349611116963</v>
+        <v>1.057212115521371</v>
       </c>
       <c r="N4">
-        <v>1.026041548570605</v>
+        <v>1.018650514686048</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.063166581838047</v>
+        <v>1.029413008232159</v>
       </c>
       <c r="D5">
-        <v>1.072992938063536</v>
+        <v>1.042927499964198</v>
       </c>
       <c r="E5">
-        <v>1.069213943002508</v>
+        <v>1.040267937871113</v>
       </c>
       <c r="F5">
-        <v>1.081481607924022</v>
+        <v>1.049251384189833</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040222836582019</v>
+        <v>1.050936769002367</v>
       </c>
       <c r="J5">
-        <v>1.067477657424021</v>
+        <v>1.047657457301429</v>
       </c>
       <c r="K5">
-        <v>1.075337002106305</v>
+        <v>1.052321706943838</v>
       </c>
       <c r="L5">
-        <v>1.071566709384516</v>
+        <v>1.049690450144407</v>
       </c>
       <c r="M5">
-        <v>1.083806361522915</v>
+        <v>1.058578991234376</v>
       </c>
       <c r="N5">
-        <v>1.026131175008608</v>
+        <v>1.019063741761169</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.063226644456891</v>
+        <v>1.029691162288258</v>
       </c>
       <c r="D6">
-        <v>1.073050476872015</v>
+        <v>1.043183213783629</v>
       </c>
       <c r="E6">
-        <v>1.069268374035759</v>
+        <v>1.040509655804938</v>
       </c>
       <c r="F6">
-        <v>1.081542132139438</v>
+        <v>1.049517898108096</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04023231164596</v>
+        <v>1.050997618220486</v>
       </c>
       <c r="J6">
-        <v>1.067521761173553</v>
+        <v>1.047856173568611</v>
       </c>
       <c r="K6">
-        <v>1.075386034094555</v>
+        <v>1.052539070547321</v>
       </c>
       <c r="L6">
-        <v>1.071612607254647</v>
+        <v>1.049893828928382</v>
       </c>
       <c r="M6">
-        <v>1.083858446479552</v>
+        <v>1.058807365870774</v>
       </c>
       <c r="N6">
-        <v>1.026146215964834</v>
+        <v>1.019132746602208</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.062813601089661</v>
+        <v>1.027770451947149</v>
       </c>
       <c r="D7">
-        <v>1.072654814018249</v>
+        <v>1.04141788114816</v>
       </c>
       <c r="E7">
-        <v>1.068894084328454</v>
+        <v>1.038841011492114</v>
       </c>
       <c r="F7">
-        <v>1.081125958187223</v>
+        <v>1.047678145803624</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040167017300196</v>
+        <v>1.05057633534854</v>
       </c>
       <c r="J7">
-        <v>1.067218412373164</v>
+        <v>1.046483668046925</v>
       </c>
       <c r="K7">
-        <v>1.075048819732495</v>
+        <v>1.051038020254084</v>
       </c>
       <c r="L7">
-        <v>1.071296946151462</v>
+        <v>1.048489362230507</v>
       </c>
       <c r="M7">
-        <v>1.083500257250446</v>
+        <v>1.057230456042203</v>
       </c>
       <c r="N7">
-        <v>1.026042746680987</v>
+        <v>1.018656061730318</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.06108609164373</v>
+        <v>1.019532958314695</v>
       </c>
       <c r="D8">
-        <v>1.07100061300909</v>
+        <v>1.033857861768084</v>
       </c>
       <c r="E8">
-        <v>1.06732930848352</v>
+        <v>1.031696823710431</v>
       </c>
       <c r="F8">
-        <v>1.079386449797063</v>
+        <v>1.039802915716116</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039890556246009</v>
+        <v>1.048741931417087</v>
       </c>
       <c r="J8">
-        <v>1.065948379138838</v>
+        <v>1.04058933489411</v>
       </c>
       <c r="K8">
-        <v>1.073637779357987</v>
+        <v>1.044597935458172</v>
       </c>
       <c r="L8">
-        <v>1.069976057699553</v>
+        <v>1.042463898811324</v>
       </c>
       <c r="M8">
-        <v>1.082001991119899</v>
+        <v>1.050469428547014</v>
       </c>
       <c r="N8">
-        <v>1.025609140890756</v>
+        <v>1.016607010418877</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.0580377999081</v>
+        <v>1.004142190341868</v>
       </c>
       <c r="D9">
-        <v>1.068084039768255</v>
+        <v>1.019779930907601</v>
       </c>
       <c r="E9">
-        <v>1.064570666071363</v>
+        <v>1.018400803522264</v>
       </c>
       <c r="F9">
-        <v>1.07632114959655</v>
+        <v>1.025151179182505</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039390015398873</v>
+        <v>1.045211684948882</v>
       </c>
       <c r="J9">
-        <v>1.063702416742467</v>
+        <v>1.029549520362083</v>
       </c>
       <c r="K9">
-        <v>1.071145388832206</v>
+        <v>1.032560041713996</v>
       </c>
       <c r="L9">
-        <v>1.067642775391619</v>
+        <v>1.03120223180485</v>
       </c>
       <c r="M9">
-        <v>1.079357571413789</v>
+        <v>1.037848962430101</v>
       </c>
       <c r="N9">
-        <v>1.024840804710559</v>
+        <v>1.012762798838341</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.056002573140467</v>
+        <v>0.9932012187593412</v>
       </c>
       <c r="D10">
-        <v>1.066138378430726</v>
+        <v>1.009808705417081</v>
       </c>
       <c r="E10">
-        <v>1.06273054489967</v>
+        <v>1.008989347883516</v>
       </c>
       <c r="F10">
-        <v>1.074277401279447</v>
+        <v>1.014782183380735</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039047293499855</v>
+        <v>1.042635994978013</v>
       </c>
       <c r="J10">
-        <v>1.062199592193636</v>
+        <v>1.021687202939823</v>
       </c>
       <c r="K10">
-        <v>1.069479642691176</v>
+        <v>1.024003090609142</v>
       </c>
       <c r="L10">
-        <v>1.066083280377605</v>
+        <v>1.023198171809029</v>
       </c>
       <c r="M10">
-        <v>1.077591591613567</v>
+        <v>1.028889573455937</v>
       </c>
       <c r="N10">
-        <v>1.024325671466603</v>
+        <v>1.01002154103914</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.055120531129342</v>
+        <v>0.9882788601029456</v>
       </c>
       <c r="D11">
-        <v>1.065295545081883</v>
+        <v>1.005332422749208</v>
       </c>
       <c r="E11">
-        <v>1.061933475194745</v>
+        <v>1.004765973672018</v>
       </c>
       <c r="F11">
-        <v>1.073392345759836</v>
+        <v>1.010129316961804</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038896742442051</v>
+        <v>1.041462414502504</v>
       </c>
       <c r="J11">
-        <v>1.061547513114426</v>
+        <v>1.018147514568294</v>
       </c>
       <c r="K11">
-        <v>1.068757337824279</v>
+        <v>1.020154473183602</v>
       </c>
       <c r="L11">
-        <v>1.065407028477327</v>
+        <v>1.019598566940983</v>
       </c>
       <c r="M11">
-        <v>1.076826148518496</v>
+        <v>1.024862704383507</v>
       </c>
       <c r="N11">
-        <v>1.024101913862449</v>
+        <v>1.008786781132715</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.054792780806825</v>
+        <v>0.9864204571205408</v>
       </c>
       <c r="D12">
-        <v>1.064982423499641</v>
+        <v>1.003644008814619</v>
       </c>
       <c r="E12">
-        <v>1.061637362203196</v>
+        <v>1.003173216601141</v>
       </c>
       <c r="F12">
-        <v>1.073063578404667</v>
+        <v>1.008374588794655</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038840497331169</v>
+        <v>1.04101720230537</v>
       </c>
       <c r="J12">
-        <v>1.06130509689753</v>
+        <v>1.016810857838419</v>
       </c>
       <c r="K12">
-        <v>1.068488884540296</v>
+        <v>1.018701726784526</v>
       </c>
       <c r="L12">
-        <v>1.065155688384521</v>
+        <v>1.018239874256863</v>
       </c>
       <c r="M12">
-        <v>1.076541711260957</v>
+        <v>1.023343084626417</v>
       </c>
       <c r="N12">
-        <v>1.024018694095158</v>
+        <v>1.008320437003784</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.054863089889968</v>
+        <v>0.9868204881130489</v>
       </c>
       <c r="D13">
-        <v>1.065049591717781</v>
+        <v>1.004007375811357</v>
       </c>
       <c r="E13">
-        <v>1.061700881566263</v>
+        <v>1.003515984930279</v>
       </c>
       <c r="F13">
-        <v>1.073134101003381</v>
+        <v>1.008752214352699</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038852576759797</v>
+        <v>1.041113131530101</v>
       </c>
       <c r="J13">
-        <v>1.061357105320886</v>
+        <v>1.017098590906234</v>
       </c>
       <c r="K13">
-        <v>1.068546475837947</v>
+        <v>1.019014424090395</v>
       </c>
       <c r="L13">
-        <v>1.065209608521007</v>
+        <v>1.018532324155785</v>
       </c>
       <c r="M13">
-        <v>1.076602729390325</v>
+        <v>1.023670157565636</v>
       </c>
       <c r="N13">
-        <v>1.024036549838373</v>
+        <v>1.008420826790255</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.055093441670679</v>
+        <v>0.9881258701992011</v>
       </c>
       <c r="D14">
-        <v>1.065269663510593</v>
+        <v>1.005193394278494</v>
       </c>
       <c r="E14">
-        <v>1.061908999354373</v>
+        <v>1.004634816404169</v>
       </c>
       <c r="F14">
-        <v>1.073365170141614</v>
+        <v>1.009984822120572</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038892099811997</v>
+        <v>1.041425805974041</v>
       </c>
       <c r="J14">
-        <v>1.061527479112602</v>
+        <v>1.018037481499745</v>
       </c>
       <c r="K14">
-        <v>1.068735150614086</v>
+        <v>1.020034872146423</v>
       </c>
       <c r="L14">
-        <v>1.065386255703325</v>
+        <v>1.019486707886907</v>
       </c>
       <c r="M14">
-        <v>1.076802639263267</v>
+        <v>1.024737589480067</v>
       </c>
       <c r="N14">
-        <v>1.024095037062447</v>
+        <v>1.008748393256482</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.05523535289396</v>
+        <v>0.9889261098684228</v>
       </c>
       <c r="D15">
-        <v>1.065405249519308</v>
+        <v>1.005920671076867</v>
       </c>
       <c r="E15">
-        <v>1.062037221432189</v>
+        <v>1.005320928655737</v>
       </c>
       <c r="F15">
-        <v>1.073507536931711</v>
+        <v>1.010740706073141</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038916408348558</v>
+        <v>1.041617206762832</v>
       </c>
       <c r="J15">
-        <v>1.061632424779348</v>
+        <v>1.018613017671271</v>
       </c>
       <c r="K15">
-        <v>1.068851378464558</v>
+        <v>1.020660477384009</v>
       </c>
       <c r="L15">
-        <v>1.06549507389984</v>
+        <v>1.020071819028568</v>
       </c>
       <c r="M15">
-        <v>1.076925794656283</v>
+        <v>1.025392053212664</v>
       </c>
       <c r="N15">
-        <v>1.024131058869863</v>
+        <v>1.008949181001914</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.056061094673141</v>
+        <v>0.9935238184925599</v>
       </c>
       <c r="D16">
-        <v>1.066194306867345</v>
+        <v>1.010102282087389</v>
       </c>
       <c r="E16">
-        <v>1.062783437530159</v>
+        <v>1.009266372712106</v>
       </c>
       <c r="F16">
-        <v>1.074336137119031</v>
+        <v>1.015087381936006</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039057239715616</v>
+        <v>1.042712609166873</v>
       </c>
       <c r="J16">
-        <v>1.062242839936814</v>
+        <v>1.021919143095542</v>
       </c>
       <c r="K16">
-        <v>1.069527557819846</v>
+        <v>1.024255352108546</v>
       </c>
       <c r="L16">
-        <v>1.066128140101279</v>
+        <v>1.023434119195491</v>
       </c>
       <c r="M16">
-        <v>1.077642375228134</v>
+        <v>1.029153575578957</v>
       </c>
       <c r="N16">
-        <v>1.024340506670593</v>
+        <v>1.010102438110136</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.056578850154322</v>
+        <v>0.9963568375589478</v>
       </c>
       <c r="D17">
-        <v>1.066689165897109</v>
+        <v>1.012681544780184</v>
       </c>
       <c r="E17">
-        <v>1.063251440745199</v>
+        <v>1.011700402006241</v>
       </c>
       <c r="F17">
-        <v>1.074855867184014</v>
+        <v>1.017768974505461</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039145003345775</v>
+        <v>1.043383759976626</v>
       </c>
       <c r="J17">
-        <v>1.062625374887286</v>
+        <v>1.023955740625656</v>
       </c>
       <c r="K17">
-        <v>1.069951430529569</v>
+        <v>1.026470815097962</v>
       </c>
       <c r="L17">
-        <v>1.066524981418957</v>
+        <v>1.025506344462721</v>
       </c>
       <c r="M17">
-        <v>1.078091661044999</v>
+        <v>1.031472460729081</v>
       </c>
       <c r="N17">
-        <v>1.024471699339413</v>
+        <v>1.010812703234881</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.056880773635306</v>
+        <v>0.9979916188236829</v>
       </c>
       <c r="D18">
-        <v>1.066977775333301</v>
+        <v>1.014170812392873</v>
       </c>
       <c r="E18">
-        <v>1.063524391798314</v>
+        <v>1.013105963070291</v>
       </c>
       <c r="F18">
-        <v>1.07515900761981</v>
+        <v>1.019317515134647</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039195986969884</v>
+        <v>1.043769645739729</v>
       </c>
       <c r="J18">
-        <v>1.062848371358565</v>
+        <v>1.025130715686976</v>
       </c>
       <c r="K18">
-        <v>1.070198569538573</v>
+        <v>1.027749341590561</v>
       </c>
       <c r="L18">
-        <v>1.066756357851499</v>
+        <v>1.026702241288882</v>
       </c>
       <c r="M18">
-        <v>1.078353648531849</v>
+        <v>1.032810930881086</v>
       </c>
       <c r="N18">
-        <v>1.024548154175148</v>
+        <v>1.01122241704432</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.056983709223032</v>
+        <v>0.9985461041339585</v>
       </c>
       <c r="D19">
-        <v>1.067076178115645</v>
+        <v>1.01467609464939</v>
       </c>
       <c r="E19">
-        <v>1.063617456511988</v>
+        <v>1.013582870291969</v>
       </c>
       <c r="F19">
-        <v>1.075262369197813</v>
+        <v>1.01984293970182</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03921333590764</v>
+        <v>1.043900290816312</v>
       </c>
       <c r="J19">
-        <v>1.062924385477539</v>
+        <v>1.025529201465615</v>
       </c>
       <c r="K19">
-        <v>1.070282820890249</v>
+        <v>1.028183007124635</v>
       </c>
       <c r="L19">
-        <v>1.0668352353075</v>
+        <v>1.0271078847083</v>
       </c>
       <c r="M19">
-        <v>1.078442967149806</v>
+        <v>1.033264972878025</v>
       </c>
       <c r="N19">
-        <v>1.024574211852478</v>
+        <v>1.011361358360178</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.05652330763178</v>
+        <v>0.9960547246859049</v>
       </c>
       <c r="D20">
-        <v>1.066636075692907</v>
+        <v>1.012406396670165</v>
       </c>
       <c r="E20">
-        <v>1.063201231276332</v>
+        <v>1.01144073112501</v>
       </c>
       <c r="F20">
-        <v>1.074800106056821</v>
+        <v>1.017482890701206</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039135608598342</v>
+        <v>1.043312333231698</v>
       </c>
       <c r="J20">
-        <v>1.062584345943302</v>
+        <v>1.023738581808854</v>
       </c>
       <c r="K20">
-        <v>1.069905963238408</v>
+        <v>1.026234546954719</v>
       </c>
       <c r="L20">
-        <v>1.066482413885855</v>
+        <v>1.025285348570764</v>
       </c>
       <c r="M20">
-        <v>1.078043464537223</v>
+        <v>1.031225136181541</v>
       </c>
       <c r="N20">
-        <v>1.024457630609189</v>
+        <v>1.010736974987728</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.055025612176505</v>
+        <v>0.9877423156900904</v>
       </c>
       <c r="D21">
-        <v>1.06520485941824</v>
+        <v>1.004844867623355</v>
       </c>
       <c r="E21">
-        <v>1.061847715141674</v>
+        <v>1.004306026136987</v>
       </c>
       <c r="F21">
-        <v>1.073297126573407</v>
+        <v>1.009622596641477</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038880470200792</v>
+        <v>1.041333992231525</v>
       </c>
       <c r="J21">
-        <v>1.061477313959091</v>
+        <v>1.017761618212394</v>
       </c>
       <c r="K21">
-        <v>1.068679594955739</v>
+        <v>1.019735030188783</v>
       </c>
       <c r="L21">
-        <v>1.065334241674601</v>
+        <v>1.019206276185125</v>
       </c>
       <c r="M21">
-        <v>1.076743774059914</v>
+        <v>1.024423930779624</v>
       </c>
       <c r="N21">
-        <v>1.024077816971934</v>
+        <v>1.00865215010001</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.054083251507021</v>
+        <v>0.9823409898313771</v>
       </c>
       <c r="D22">
-        <v>1.064304672750608</v>
+        <v>0.9999407225155438</v>
       </c>
       <c r="E22">
-        <v>1.06099643927612</v>
+        <v>0.9996802449478577</v>
       </c>
       <c r="F22">
-        <v>1.072352035956856</v>
+        <v>1.004526381662154</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03871818112672</v>
+        <v>1.040036061425936</v>
       </c>
       <c r="J22">
-        <v>1.060780091487683</v>
+        <v>1.013876309000709</v>
       </c>
       <c r="K22">
-        <v>1.067907618147116</v>
+        <v>1.015513353795944</v>
       </c>
       <c r="L22">
-        <v>1.064611470851922</v>
+        <v>1.015258038910693</v>
       </c>
       <c r="M22">
-        <v>1.075925925066907</v>
+        <v>1.020008700201726</v>
       </c>
       <c r="N22">
-        <v>1.023838398029502</v>
+        <v>1.007296491921619</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.054582882479006</v>
+        <v>0.9852217381282601</v>
       </c>
       <c r="D23">
-        <v>1.064781910567793</v>
+        <v>1.002555395580742</v>
       </c>
       <c r="E23">
-        <v>1.061447742983705</v>
+        <v>1.002146355013375</v>
       </c>
       <c r="F23">
-        <v>1.072853057745253</v>
+        <v>1.007243300476648</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038804391450264</v>
+        <v>1.040729438072753</v>
       </c>
       <c r="J23">
-        <v>1.061149815803738</v>
+        <v>1.015948614661558</v>
       </c>
       <c r="K23">
-        <v>1.068316944953185</v>
+        <v>1.017764756881607</v>
       </c>
       <c r="L23">
-        <v>1.064994708669742</v>
+        <v>1.017363583061489</v>
       </c>
       <c r="M23">
-        <v>1.076359547976947</v>
+        <v>1.022363099633424</v>
       </c>
       <c r="N23">
-        <v>1.023965377119397</v>
+        <v>1.008019591843005</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.056548405137042</v>
+        <v>0.9961912909305577</v>
       </c>
       <c r="D24">
-        <v>1.066660064974262</v>
+        <v>1.012530771006305</v>
       </c>
       <c r="E24">
-        <v>1.063223918858378</v>
+        <v>1.011558108869919</v>
       </c>
       <c r="F24">
-        <v>1.074825302138695</v>
+        <v>1.017612207681894</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039139854321201</v>
+        <v>1.043344625123324</v>
       </c>
       <c r="J24">
-        <v>1.062602885557672</v>
+        <v>1.023836746398554</v>
       </c>
       <c r="K24">
-        <v>1.069926508255274</v>
+        <v>1.026341348621505</v>
       </c>
       <c r="L24">
-        <v>1.066501648613358</v>
+        <v>1.025385246534815</v>
       </c>
       <c r="M24">
-        <v>1.078065242690986</v>
+        <v>1.031336934933486</v>
       </c>
       <c r="N24">
-        <v>1.02446398787175</v>
+        <v>1.010771207412668</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.058826375489966</v>
+        <v>1.008233730147934</v>
       </c>
       <c r="D25">
-        <v>1.068838257307755</v>
+        <v>1.023516566145547</v>
       </c>
       <c r="E25">
-        <v>1.065284011304891</v>
+        <v>1.021928942524469</v>
       </c>
       <c r="F25">
-        <v>1.077113628407384</v>
+        <v>1.029038613941979</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039521006142723</v>
+        <v>1.046161764416449</v>
       </c>
       <c r="J25">
-        <v>1.064284014093119</v>
+        <v>1.032487138557393</v>
       </c>
       <c r="K25">
-        <v>1.071790452586833</v>
+        <v>1.035760465546073</v>
       </c>
       <c r="L25">
-        <v>1.068246675161169</v>
+        <v>1.034196116933354</v>
       </c>
       <c r="M25">
-        <v>1.080041740646256</v>
+        <v>1.041202267334129</v>
       </c>
       <c r="N25">
-        <v>1.025039947834108</v>
+        <v>1.013786378467034</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_52/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017355980857277</v>
+        <v>0.9805968938270796</v>
       </c>
       <c r="D2">
-        <v>1.031862891052807</v>
+        <v>0.9967143354050916</v>
       </c>
       <c r="E2">
-        <v>1.029812059226594</v>
+        <v>0.9947570539814418</v>
       </c>
       <c r="F2">
-        <v>1.03772564784659</v>
+        <v>0.9952175050718561</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048250209037443</v>
+        <v>1.036813124536786</v>
       </c>
       <c r="J2">
-        <v>1.039029686233695</v>
+        <v>1.003373852100286</v>
       </c>
       <c r="K2">
-        <v>1.042895479239527</v>
+        <v>1.008219635345555</v>
       </c>
       <c r="L2">
-        <v>1.040871119343959</v>
+        <v>1.006289917882683</v>
       </c>
       <c r="M2">
-        <v>1.048683280852497</v>
+        <v>1.006743872217978</v>
       </c>
       <c r="N2">
-        <v>1.01606437397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.004729046276708</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.013909205174581</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.016881458365867</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02373010894239</v>
+        <v>0.9881942145946557</v>
       </c>
       <c r="D3">
-        <v>1.037707594156781</v>
+        <v>1.002594546062095</v>
       </c>
       <c r="E3">
-        <v>1.035334448697774</v>
+        <v>1.001684849480775</v>
       </c>
       <c r="F3">
-        <v>1.043812476411608</v>
+        <v>1.00358129166449</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049681984108455</v>
+        <v>1.039978014577411</v>
       </c>
       <c r="J3">
-        <v>1.04359412656336</v>
+        <v>1.009011974322607</v>
       </c>
       <c r="K3">
-        <v>1.047879703508304</v>
+        <v>1.013194336481055</v>
       </c>
       <c r="L3">
-        <v>1.045534331564061</v>
+        <v>1.012296217640562</v>
       </c>
       <c r="M3">
-        <v>1.053913855493148</v>
+        <v>1.014168553366018</v>
       </c>
       <c r="N3">
-        <v>1.017651929687226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.006649618879807</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.019785544008427</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.020396484735234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027748111698423</v>
+        <v>0.9928918019402024</v>
       </c>
       <c r="D4">
-        <v>1.041397353946977</v>
+        <v>1.006235800256331</v>
       </c>
       <c r="E4">
-        <v>1.038821609499459</v>
+        <v>1.005947165006339</v>
       </c>
       <c r="F4">
-        <v>1.047656755152921</v>
+        <v>1.008670292012964</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050571420237251</v>
+        <v>1.041834796724917</v>
       </c>
       <c r="J4">
-        <v>1.04646769964103</v>
+        <v>1.01247910063473</v>
       </c>
       <c r="K4">
-        <v>1.051020559700688</v>
+        <v>1.01625954279059</v>
       </c>
       <c r="L4">
-        <v>1.048473025277083</v>
+        <v>1.015974339022104</v>
       </c>
       <c r="M4">
-        <v>1.057212115521371</v>
+        <v>1.018665188523598</v>
       </c>
       <c r="N4">
-        <v>1.018650514686048</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.007830213048232</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.023344426072046</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.022564890103069</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029413008232159</v>
+        <v>0.9948272580811466</v>
       </c>
       <c r="D5">
-        <v>1.042927499964198</v>
+        <v>1.007740509694212</v>
       </c>
       <c r="E5">
-        <v>1.040267937871113</v>
+        <v>1.007697972482174</v>
       </c>
       <c r="F5">
-        <v>1.049251384189833</v>
+        <v>1.010744885760085</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050936769002367</v>
+        <v>1.042574178714356</v>
       </c>
       <c r="J5">
-        <v>1.047657457301429</v>
+        <v>1.013905231389638</v>
       </c>
       <c r="K5">
-        <v>1.052321706943838</v>
+        <v>1.017524123058622</v>
       </c>
       <c r="L5">
-        <v>1.049690450144407</v>
+        <v>1.017482076916078</v>
       </c>
       <c r="M5">
-        <v>1.058578991234376</v>
+        <v>1.020493944260898</v>
       </c>
       <c r="N5">
-        <v>1.019063741761169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.008316711874203</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.024791797634318</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.023466436463169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029691162288258</v>
+        <v>0.995159527923494</v>
       </c>
       <c r="D6">
-        <v>1.043183213783629</v>
+        <v>1.008002769359099</v>
       </c>
       <c r="E6">
-        <v>1.040509655804938</v>
+        <v>1.007997603242663</v>
       </c>
       <c r="F6">
-        <v>1.049517898108096</v>
+        <v>1.011095607695096</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050997618220486</v>
+        <v>1.042696675712443</v>
       </c>
       <c r="J6">
-        <v>1.047856173568611</v>
+        <v>1.014152193356566</v>
       </c>
       <c r="K6">
-        <v>1.052539070547321</v>
+        <v>1.017746051756118</v>
       </c>
       <c r="L6">
-        <v>1.049893828928382</v>
+        <v>1.01774094498223</v>
       </c>
       <c r="M6">
-        <v>1.058807365870774</v>
+        <v>1.02080349732211</v>
       </c>
       <c r="N6">
-        <v>1.019132746602208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.008402166456489</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.025036793579138</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.023632307436908</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027770451947149</v>
+        <v>0.9929449446290902</v>
       </c>
       <c r="D7">
-        <v>1.04141788114816</v>
+        <v>1.006287484744193</v>
       </c>
       <c r="E7">
-        <v>1.038841011492114</v>
+        <v>1.005993458694428</v>
       </c>
       <c r="F7">
-        <v>1.047678145803624</v>
+        <v>1.008715467425788</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05057633534854</v>
+        <v>1.041846762410323</v>
       </c>
       <c r="J7">
-        <v>1.046483668046925</v>
+        <v>1.012524700039276</v>
       </c>
       <c r="K7">
-        <v>1.051038020254084</v>
+        <v>1.016307636903915</v>
       </c>
       <c r="L7">
-        <v>1.048489362230507</v>
+        <v>1.016017104830074</v>
       </c>
       <c r="M7">
-        <v>1.057230456042203</v>
+        <v>1.018706863764387</v>
       </c>
       <c r="N7">
-        <v>1.018656061730318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.007849096004976</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.023377410040361</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.022619485232222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019532958314695</v>
+        <v>0.9832480012164163</v>
       </c>
       <c r="D8">
-        <v>1.033857861768084</v>
+        <v>0.998778174984712</v>
       </c>
       <c r="E8">
-        <v>1.031696823710431</v>
+        <v>0.9971768302869866</v>
       </c>
       <c r="F8">
-        <v>1.039802915716116</v>
+        <v>0.9981383991052307</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048741931417087</v>
+        <v>1.03792756477526</v>
       </c>
       <c r="J8">
-        <v>1.04058933489411</v>
+        <v>1.005353560437421</v>
       </c>
       <c r="K8">
-        <v>1.044597935458172</v>
+        <v>1.009974722142171</v>
       </c>
       <c r="L8">
-        <v>1.042463898811324</v>
+        <v>1.008395179492962</v>
       </c>
       <c r="M8">
-        <v>1.050469428547014</v>
+        <v>1.009343646146429</v>
       </c>
       <c r="N8">
-        <v>1.016607010418877</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.005407967306242</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.015966828445872</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.018146095999588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004142190341868</v>
+        <v>0.9641738488278108</v>
       </c>
       <c r="D9">
-        <v>1.019779930907601</v>
+        <v>0.9840350451792156</v>
       </c>
       <c r="E9">
-        <v>1.018400803522264</v>
+        <v>0.9796331435068564</v>
       </c>
       <c r="F9">
-        <v>1.025151179182505</v>
+        <v>0.9765697292393528</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045211684948882</v>
+        <v>1.02931888640669</v>
       </c>
       <c r="J9">
-        <v>1.029549520362083</v>
+        <v>0.9910583971177969</v>
       </c>
       <c r="K9">
-        <v>1.032560041713996</v>
+        <v>0.9973925645994631</v>
       </c>
       <c r="L9">
-        <v>1.03120223180485</v>
+        <v>0.9930655341591194</v>
       </c>
       <c r="M9">
-        <v>1.037848962430101</v>
+        <v>0.990054740121884</v>
       </c>
       <c r="N9">
-        <v>1.012762798838341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.000532184249181</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.000700228334283</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.009245740325877</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9932012187593412</v>
+        <v>0.9496778348791474</v>
       </c>
       <c r="D10">
-        <v>1.009808705417081</v>
+        <v>0.9728699629563701</v>
       </c>
       <c r="E10">
-        <v>1.008989347883516</v>
+        <v>0.9661029461662423</v>
       </c>
       <c r="F10">
-        <v>1.014782183380735</v>
+        <v>0.9594569380999214</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042635994978013</v>
+        <v>1.021972153439584</v>
       </c>
       <c r="J10">
-        <v>1.021687202939823</v>
+        <v>0.9800407606907808</v>
       </c>
       <c r="K10">
-        <v>1.024003090609142</v>
+        <v>0.9877469667816392</v>
       </c>
       <c r="L10">
-        <v>1.023198171809029</v>
+        <v>0.98111243514071</v>
       </c>
       <c r="M10">
-        <v>1.028889573455937</v>
+        <v>0.974598937646752</v>
       </c>
       <c r="N10">
-        <v>1.01002154103914</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9967919486375854</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>0.9885219046846121</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.002442595097524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9882788601029456</v>
+        <v>0.9430076325017386</v>
       </c>
       <c r="D11">
-        <v>1.005332422749208</v>
+        <v>0.9677964935178525</v>
       </c>
       <c r="E11">
-        <v>1.004765973672018</v>
+        <v>0.9597764425865412</v>
       </c>
       <c r="F11">
-        <v>1.010129316961804</v>
+        <v>0.9514397094113477</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041462414502504</v>
+        <v>1.018282300664561</v>
       </c>
       <c r="J11">
-        <v>1.018147514568294</v>
+        <v>0.9749598104710453</v>
       </c>
       <c r="K11">
-        <v>1.020154473183602</v>
+        <v>0.9833523934051455</v>
       </c>
       <c r="L11">
-        <v>1.019598566940983</v>
+        <v>0.9754989868467141</v>
       </c>
       <c r="M11">
-        <v>1.024862704383507</v>
+        <v>0.9673394285227539</v>
       </c>
       <c r="N11">
-        <v>1.008786781132715</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9952234010249358</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>0.983242348140451</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>0.9993695640442923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9864204571205408</v>
+        <v>0.940327891968737</v>
       </c>
       <c r="D12">
-        <v>1.003644008814619</v>
+        <v>0.9657633203888364</v>
       </c>
       <c r="E12">
-        <v>1.003173216601141</v>
+        <v>0.9571772651292315</v>
       </c>
       <c r="F12">
-        <v>1.008374588794655</v>
+        <v>0.9481976010674805</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04101720230537</v>
+        <v>1.016792434049112</v>
       </c>
       <c r="J12">
-        <v>1.016810857838419</v>
+        <v>0.9728914768960958</v>
       </c>
       <c r="K12">
-        <v>1.018701726784526</v>
+        <v>0.9815772095226973</v>
       </c>
       <c r="L12">
-        <v>1.018239874256863</v>
+        <v>0.973173587581068</v>
       </c>
       <c r="M12">
-        <v>1.023343084626417</v>
+        <v>0.964389422227773</v>
       </c>
       <c r="N12">
-        <v>1.008320437003784</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9946458222081589</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>0.98125603817827</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>0.9981143283365761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9868204881130489</v>
+        <v>0.9407915222152605</v>
       </c>
       <c r="D13">
-        <v>1.004007375811357</v>
+        <v>0.9661400808431344</v>
       </c>
       <c r="E13">
-        <v>1.003515984930279</v>
+        <v>0.9575409135735318</v>
       </c>
       <c r="F13">
-        <v>1.008752214352699</v>
+        <v>0.9488109601273099</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041113131530101</v>
+        <v>1.017104007221466</v>
       </c>
       <c r="J13">
-        <v>1.017098590906234</v>
+        <v>0.9732289961333106</v>
       </c>
       <c r="K13">
-        <v>1.019014424090395</v>
+        <v>0.9818997355714523</v>
       </c>
       <c r="L13">
-        <v>1.018532324155785</v>
+        <v>0.9734824733230371</v>
       </c>
       <c r="M13">
-        <v>1.023670157565636</v>
+        <v>0.9649416758526489</v>
       </c>
       <c r="N13">
-        <v>1.008420826790255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9948710522610855</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>0.981984568398242</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>0.9983397656360402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9881258701992011</v>
+        <v>0.9425372347823543</v>
       </c>
       <c r="D14">
-        <v>1.005193394278494</v>
+        <v>0.9674948049947952</v>
       </c>
       <c r="E14">
-        <v>1.004634816404169</v>
+        <v>0.9591327879932996</v>
       </c>
       <c r="F14">
-        <v>1.009984822120572</v>
+        <v>0.9509790379867505</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041425805974041</v>
+        <v>1.018132971789721</v>
       </c>
       <c r="J14">
-        <v>1.018037481499745</v>
+        <v>0.9745519883977201</v>
       </c>
       <c r="K14">
-        <v>1.020034872146423</v>
+        <v>0.9830747210337499</v>
       </c>
       <c r="L14">
-        <v>1.019486707886907</v>
+        <v>0.9748869107359533</v>
       </c>
       <c r="M14">
-        <v>1.024737589480067</v>
+        <v>0.9669069430631931</v>
       </c>
       <c r="N14">
-        <v>1.008748393256482</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9953903831349014</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>0.9837192534005844</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>0.9991720995798333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9889261098684228</v>
+        <v>0.9436560727068938</v>
       </c>
       <c r="D15">
-        <v>1.005920671076867</v>
+        <v>0.9683611081284806</v>
       </c>
       <c r="E15">
-        <v>1.005320928655737</v>
+        <v>0.9601768506138475</v>
       </c>
       <c r="F15">
-        <v>1.010740706073141</v>
+        <v>0.9523529046926742</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041617206762832</v>
+        <v>1.018761073188542</v>
       </c>
       <c r="J15">
-        <v>1.018613017671271</v>
+        <v>0.9754097318020606</v>
       </c>
       <c r="K15">
-        <v>1.020660477384009</v>
+        <v>0.9838300076148238</v>
       </c>
       <c r="L15">
-        <v>1.020071819028568</v>
+        <v>0.9758146270801977</v>
       </c>
       <c r="M15">
-        <v>1.025392053212664</v>
+        <v>0.9681557196351391</v>
       </c>
       <c r="N15">
-        <v>1.008949181001914</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9956965921603574</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>0.984745272146582</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>0.9997123298684234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9935238184925599</v>
+        <v>0.9501685935716802</v>
       </c>
       <c r="D16">
-        <v>1.010102282087389</v>
+        <v>0.973374790291997</v>
       </c>
       <c r="E16">
-        <v>1.009266372712106</v>
+        <v>0.9663490977797583</v>
       </c>
       <c r="F16">
-        <v>1.015087381936006</v>
+        <v>0.960288472082943</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042712609166873</v>
+        <v>1.02224802745054</v>
       </c>
       <c r="J16">
-        <v>1.021919143095542</v>
+        <v>0.980425332527198</v>
       </c>
       <c r="K16">
-        <v>1.024255352108546</v>
+        <v>0.9882038594022645</v>
       </c>
       <c r="L16">
-        <v>1.023434119195491</v>
+        <v>0.981315169170307</v>
       </c>
       <c r="M16">
-        <v>1.029153575578957</v>
+        <v>0.9753748456135355</v>
       </c>
       <c r="N16">
-        <v>1.010102438110136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9973724171606393</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>0.9904106794647168</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.002808367788442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9963568375589478</v>
+        <v>0.9541504883964674</v>
       </c>
       <c r="D17">
-        <v>1.012681544780184</v>
+        <v>0.9764364897194217</v>
       </c>
       <c r="E17">
-        <v>1.011700402006241</v>
+        <v>0.970139976002834</v>
       </c>
       <c r="F17">
-        <v>1.017768974505461</v>
+        <v>0.9650589338495409</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043383759976626</v>
+        <v>1.024280320865887</v>
       </c>
       <c r="J17">
-        <v>1.023955740625656</v>
+        <v>0.9834922206494863</v>
       </c>
       <c r="K17">
-        <v>1.026470815097962</v>
+        <v>0.9908706840443116</v>
       </c>
       <c r="L17">
-        <v>1.025506344462721</v>
+        <v>0.9846926309653672</v>
       </c>
       <c r="M17">
-        <v>1.031472460729081</v>
+        <v>0.979708657865771</v>
       </c>
       <c r="N17">
-        <v>1.010812703234881</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9983577299521157</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>0.9937021044607858</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.004696745837774</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9979916188236829</v>
+        <v>0.9564356622901237</v>
       </c>
       <c r="D18">
-        <v>1.014170812392873</v>
+        <v>0.9781757015214689</v>
       </c>
       <c r="E18">
-        <v>1.013105963070291</v>
+        <v>0.9723473709125845</v>
       </c>
       <c r="F18">
-        <v>1.019317515134647</v>
+        <v>0.9677506600661153</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043769645739729</v>
+        <v>1.025413178218032</v>
       </c>
       <c r="J18">
-        <v>1.025130715686976</v>
+        <v>0.9852518803315453</v>
       </c>
       <c r="K18">
-        <v>1.027749341590561</v>
+        <v>0.9923820934355461</v>
       </c>
       <c r="L18">
-        <v>1.026702241288882</v>
+        <v>0.9866611297832474</v>
       </c>
       <c r="M18">
-        <v>1.032810930881086</v>
+        <v>0.9821502889731281</v>
       </c>
       <c r="N18">
-        <v>1.01122241704432</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9988635412980886</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>0.9953845665914084</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.005753298586509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9985461041339585</v>
+        <v>0.9571940687974081</v>
       </c>
       <c r="D19">
-        <v>1.01467609464939</v>
+        <v>0.9787378854562554</v>
       </c>
       <c r="E19">
-        <v>1.013582870291969</v>
+        <v>0.9731084814933885</v>
       </c>
       <c r="F19">
-        <v>1.01984293970182</v>
+        <v>0.9685614525326074</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043900290816312</v>
+        <v>1.025778898719694</v>
       </c>
       <c r="J19">
-        <v>1.025529201465615</v>
+        <v>0.9858330621089088</v>
       </c>
       <c r="K19">
-        <v>1.028183007124635</v>
+        <v>0.9928674327847664</v>
       </c>
       <c r="L19">
-        <v>1.0271078847083</v>
+        <v>0.987340988144202</v>
       </c>
       <c r="M19">
-        <v>1.033264972878025</v>
+        <v>0.9828782625988062</v>
       </c>
       <c r="N19">
-        <v>1.011361358360178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9989486647660584</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>0.995619339218039</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.006103140587588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9960547246859049</v>
+        <v>0.9536427737217416</v>
       </c>
       <c r="D20">
-        <v>1.012406396670165</v>
+        <v>0.9759498349846005</v>
       </c>
       <c r="E20">
-        <v>1.01144073112501</v>
+        <v>0.9698151567237487</v>
       </c>
       <c r="F20">
-        <v>1.017482890701206</v>
+        <v>0.9641634174934356</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043312333231698</v>
+        <v>1.024014836244389</v>
       </c>
       <c r="J20">
-        <v>1.023738581808854</v>
+        <v>0.9830855413749561</v>
       </c>
       <c r="K20">
-        <v>1.026234546954719</v>
+        <v>0.990429184160951</v>
       </c>
       <c r="L20">
-        <v>1.025285348570764</v>
+        <v>0.9844103808584282</v>
       </c>
       <c r="M20">
-        <v>1.031225136181541</v>
+        <v>0.9788671046733723</v>
       </c>
       <c r="N20">
-        <v>1.010736974987728</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9978373155671725</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>0.9918887148974131</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.004383174632572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9877423156900904</v>
+        <v>0.942027302715971</v>
       </c>
       <c r="D21">
-        <v>1.004844867623355</v>
+        <v>0.9669950011746856</v>
       </c>
       <c r="E21">
-        <v>1.004306026136987</v>
+        <v>0.9588781972977779</v>
       </c>
       <c r="F21">
-        <v>1.009622596641477</v>
+        <v>0.9500770978520546</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041333992231525</v>
+        <v>1.01779393886424</v>
       </c>
       <c r="J21">
-        <v>1.017761618212394</v>
+        <v>0.9741660242683677</v>
       </c>
       <c r="K21">
-        <v>1.019735030188783</v>
+        <v>0.9826298550370127</v>
       </c>
       <c r="L21">
-        <v>1.019206276185125</v>
+        <v>0.9746828863750783</v>
       </c>
       <c r="M21">
-        <v>1.024423930779624</v>
+        <v>0.9660702943568725</v>
       </c>
       <c r="N21">
-        <v>1.00865215010001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9947792630166241</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>0.9817167209728532</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>0.9988717364487931</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9823409898313771</v>
+        <v>0.9339928251803681</v>
       </c>
       <c r="D22">
-        <v>0.9999407225155438</v>
+        <v>0.9607959783466714</v>
       </c>
       <c r="E22">
-        <v>0.9996802449478577</v>
+        <v>0.9512343593005061</v>
       </c>
       <c r="F22">
-        <v>1.004526381662154</v>
+        <v>0.940072277989959</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040036061425936</v>
+        <v>1.013219788512706</v>
       </c>
       <c r="J22">
-        <v>1.013876309000709</v>
+        <v>0.9679307093894414</v>
       </c>
       <c r="K22">
-        <v>1.015513353795944</v>
+        <v>0.9771862427135642</v>
       </c>
       <c r="L22">
-        <v>1.015258038910693</v>
+        <v>0.967837988854398</v>
       </c>
       <c r="M22">
-        <v>1.020008700201726</v>
+        <v>0.9569323393828985</v>
       </c>
       <c r="N22">
-        <v>1.007296491921619</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9926465317602361</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>0.974483936922785</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>0.9950083191248434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9852217381282601</v>
+        <v>0.9383003624420119</v>
       </c>
       <c r="D23">
-        <v>1.002555395580742</v>
+        <v>0.9641093479172811</v>
       </c>
       <c r="E23">
-        <v>1.002146355013375</v>
+        <v>0.9553446093640816</v>
       </c>
       <c r="F23">
-        <v>1.007243300476648</v>
+        <v>0.9454856933284491</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040729438072753</v>
+        <v>1.015717077383486</v>
       </c>
       <c r="J23">
-        <v>1.015948614661558</v>
+        <v>0.9712748755192577</v>
       </c>
       <c r="K23">
-        <v>1.017764756881607</v>
+        <v>0.9800967790791257</v>
       </c>
       <c r="L23">
-        <v>1.017363583061489</v>
+        <v>0.9715210715817701</v>
       </c>
       <c r="M23">
-        <v>1.022363099633424</v>
+        <v>0.9618803681432265</v>
       </c>
       <c r="N23">
-        <v>1.008019591843005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9937861516621284</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>0.9784003632849374</v>
+      </c>
+      <c r="Q23">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R23">
+        <v>0.9970562441176958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9961912909305577</v>
+        <v>0.9537526958252595</v>
       </c>
       <c r="D24">
-        <v>1.012530771006305</v>
+        <v>0.9760141221783019</v>
       </c>
       <c r="E24">
-        <v>1.011558108869919</v>
+        <v>0.9699221783150145</v>
       </c>
       <c r="F24">
-        <v>1.017612207681894</v>
+        <v>0.9643040998573166</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043344625123324</v>
+        <v>1.024099410772319</v>
       </c>
       <c r="J24">
-        <v>1.023836746398554</v>
+        <v>0.9831550469745692</v>
       </c>
       <c r="K24">
-        <v>1.026341348621505</v>
+        <v>0.9904759700163749</v>
       </c>
       <c r="L24">
-        <v>1.025385246534815</v>
+        <v>0.9844989178615505</v>
       </c>
       <c r="M24">
-        <v>1.031336934933486</v>
+        <v>0.9789884799205602</v>
       </c>
       <c r="N24">
-        <v>1.010771207412668</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9978412450702464</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>0.9919414418177974</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.004387643243018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008233730147934</v>
+        <v>0.9694271254247115</v>
       </c>
       <c r="D25">
-        <v>1.023516566145547</v>
+        <v>0.988107061845289</v>
       </c>
       <c r="E25">
-        <v>1.021928942524469</v>
+        <v>0.9844889432677599</v>
       </c>
       <c r="F25">
-        <v>1.029038613941979</v>
+        <v>0.9825919611079327</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046161764416449</v>
+        <v>1.031789065263937</v>
       </c>
       <c r="J25">
-        <v>1.032487138557393</v>
+        <v>0.9950290887137526</v>
       </c>
       <c r="K25">
-        <v>1.035760465546073</v>
+        <v>1.000892849294463</v>
       </c>
       <c r="L25">
-        <v>1.034196116933354</v>
+        <v>0.997332917394272</v>
       </c>
       <c r="M25">
-        <v>1.041202267334129</v>
+        <v>0.9954666624632947</v>
       </c>
       <c r="N25">
-        <v>1.013786378467034</v>
+        <v>1.001892996725277</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.004983642160265</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.011750482609542</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_52/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9805968938270796</v>
+        <v>0.9844360508079243</v>
       </c>
       <c r="D2">
-        <v>0.9967143354050916</v>
+        <v>1.000827566488671</v>
       </c>
       <c r="E2">
-        <v>0.9947570539814418</v>
+        <v>0.9978494346529292</v>
       </c>
       <c r="F2">
-        <v>0.9952175050718561</v>
+        <v>0.9975999666681983</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.036813124536786</v>
+        <v>1.037092775004039</v>
       </c>
       <c r="J2">
-        <v>1.003373852100286</v>
+        <v>1.007092455684517</v>
       </c>
       <c r="K2">
-        <v>1.008219635345555</v>
+        <v>1.012275384023655</v>
       </c>
       <c r="L2">
-        <v>1.006289917882683</v>
+        <v>1.009338811799325</v>
       </c>
       <c r="M2">
-        <v>1.006743872217978</v>
+        <v>1.009092839345155</v>
       </c>
       <c r="N2">
-        <v>1.004729046276708</v>
+        <v>1.00892721824915</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.013909205174581</v>
+        <v>1.015768324578126</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.016881458365867</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.0197584093222</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.015267197583702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9881942145946557</v>
+        <v>0.9911774334447373</v>
       </c>
       <c r="D3">
-        <v>1.002594546062095</v>
+        <v>1.005730490554917</v>
       </c>
       <c r="E3">
-        <v>1.001684849480775</v>
+        <v>1.004089239087201</v>
       </c>
       <c r="F3">
-        <v>1.00358129166449</v>
+        <v>1.005421773366985</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.039978014577411</v>
+        <v>1.040187743984667</v>
       </c>
       <c r="J3">
-        <v>1.009011974322607</v>
+        <v>1.011911534586221</v>
       </c>
       <c r="K3">
-        <v>1.013194336481055</v>
+        <v>1.016290570032068</v>
       </c>
       <c r="L3">
-        <v>1.012296217640562</v>
+        <v>1.014670063360744</v>
       </c>
       <c r="M3">
-        <v>1.014168553366018</v>
+        <v>1.015985748458965</v>
       </c>
       <c r="N3">
-        <v>1.006649618879807</v>
+        <v>1.010223961113848</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.019785544008427</v>
+        <v>1.021223773484833</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.020396484735234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.022594615013321</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.016248726382366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9928918019402024</v>
+        <v>0.9953586403782948</v>
       </c>
       <c r="D4">
-        <v>1.006235800256331</v>
+        <v>1.008777119048645</v>
       </c>
       <c r="E4">
-        <v>1.005947165006339</v>
+        <v>1.007937054053187</v>
       </c>
       <c r="F4">
-        <v>1.008670292012964</v>
+        <v>1.010187802476072</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.041834796724917</v>
+        <v>1.042004868096461</v>
       </c>
       <c r="J4">
-        <v>1.01247910063473</v>
+        <v>1.014881822415105</v>
       </c>
       <c r="K4">
-        <v>1.01625954279059</v>
+        <v>1.01877075372687</v>
       </c>
       <c r="L4">
-        <v>1.015974339022104</v>
+        <v>1.01794062045373</v>
       </c>
       <c r="M4">
-        <v>1.018665188523598</v>
+        <v>1.020164805263709</v>
       </c>
       <c r="N4">
-        <v>1.007830213048232</v>
+        <v>1.011023139333655</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.023344426072046</v>
+        <v>1.024531300292647</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.022564890103069</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.024349390531006</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.016850938139056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9948272580811466</v>
+        <v>0.9970835152019584</v>
       </c>
       <c r="D5">
-        <v>1.007740509694212</v>
+        <v>1.010038442740895</v>
       </c>
       <c r="E5">
-        <v>1.007697972482174</v>
+        <v>1.009518866361796</v>
       </c>
       <c r="F5">
-        <v>1.010744885760085</v>
+        <v>1.012131457891014</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.042574178714356</v>
+        <v>1.042728572953015</v>
       </c>
       <c r="J5">
-        <v>1.013905231389638</v>
+        <v>1.016104732171359</v>
       </c>
       <c r="K5">
-        <v>1.017524123058622</v>
+        <v>1.019795603582663</v>
       </c>
       <c r="L5">
-        <v>1.017482076916078</v>
+        <v>1.019281995267744</v>
       </c>
       <c r="M5">
-        <v>1.020493944260898</v>
+        <v>1.021864654086313</v>
       </c>
       <c r="N5">
-        <v>1.008316711874203</v>
+        <v>1.011352811486561</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.024791797634318</v>
+        <v>1.025876646029912</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.023466436463169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.02508210919937</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.017099603866765</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.995159527923494</v>
+        <v>0.9973790902771524</v>
       </c>
       <c r="D6">
-        <v>1.008002769359099</v>
+        <v>1.010258470478498</v>
       </c>
       <c r="E6">
-        <v>1.007997603242663</v>
+        <v>1.009788973708499</v>
       </c>
       <c r="F6">
-        <v>1.011095607695096</v>
+        <v>1.012459376987032</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.042696675712443</v>
+        <v>1.042848370146192</v>
       </c>
       <c r="J6">
-        <v>1.014152193356566</v>
+        <v>1.016316232138887</v>
       </c>
       <c r="K6">
-        <v>1.017746051756118</v>
+        <v>1.019975913459497</v>
       </c>
       <c r="L6">
-        <v>1.01774094498223</v>
+        <v>1.019511783110195</v>
       </c>
       <c r="M6">
-        <v>1.02080349732211</v>
+        <v>1.022151745089819</v>
       </c>
       <c r="N6">
-        <v>1.008402166456489</v>
+        <v>1.011410629195249</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.025036793579138</v>
+        <v>1.026103864008016</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.023632307436908</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.025219405905742</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.017144257619665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9929449446290902</v>
+        <v>0.9954165642035262</v>
       </c>
       <c r="D7">
-        <v>1.006287484744193</v>
+        <v>1.008830726305547</v>
       </c>
       <c r="E7">
-        <v>1.005993458694428</v>
+        <v>1.007987415241014</v>
       </c>
       <c r="F7">
-        <v>1.008715467425788</v>
+        <v>1.010236026471596</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.041846762410323</v>
+        <v>1.042017159669556</v>
       </c>
       <c r="J7">
-        <v>1.012524700039276</v>
+        <v>1.014932111968821</v>
       </c>
       <c r="K7">
-        <v>1.016307636903915</v>
+        <v>1.018820761837093</v>
       </c>
       <c r="L7">
-        <v>1.016017104830074</v>
+        <v>1.017987416255065</v>
       </c>
       <c r="M7">
-        <v>1.018706863764387</v>
+        <v>1.020209501204962</v>
       </c>
       <c r="N7">
-        <v>1.007849096004976</v>
+        <v>1.011065771959248</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.023377410040361</v>
+        <v>1.024566674939549</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.022619485232222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.024407306614584</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.01686679704846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9832480012164163</v>
+        <v>0.9868217032818637</v>
       </c>
       <c r="D8">
-        <v>0.998778174984712</v>
+        <v>1.002577719432995</v>
       </c>
       <c r="E8">
-        <v>0.9971768302869866</v>
+        <v>1.000056925802016</v>
       </c>
       <c r="F8">
-        <v>0.9981383991052307</v>
+        <v>1.000352059822113</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.03792756477526</v>
+        <v>1.038184663651103</v>
       </c>
       <c r="J8">
-        <v>1.005353560437421</v>
+        <v>1.008819210829379</v>
       </c>
       <c r="K8">
-        <v>1.009974722142171</v>
+        <v>1.013722886721092</v>
       </c>
       <c r="L8">
-        <v>1.008395179492962</v>
+        <v>1.011236126046429</v>
       </c>
       <c r="M8">
-        <v>1.009343646146429</v>
+        <v>1.011527264344529</v>
       </c>
       <c r="N8">
-        <v>1.005407967306242</v>
+        <v>1.009476901394858</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.015966828445872</v>
+        <v>1.017695075138657</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.018146095999588</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.020807741542936</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.015628879309743</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9641738488278108</v>
+        <v>0.970005081519408</v>
       </c>
       <c r="D9">
-        <v>0.9840350451792156</v>
+        <v>0.9903698926858866</v>
       </c>
       <c r="E9">
-        <v>0.9796331435068564</v>
+        <v>0.9843346101954358</v>
       </c>
       <c r="F9">
-        <v>0.9765697292393528</v>
+        <v>0.9802514264667239</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.02931888640669</v>
+        <v>1.029785425796771</v>
       </c>
       <c r="J9">
-        <v>0.9910583971177969</v>
+        <v>0.9966633898855309</v>
       </c>
       <c r="K9">
-        <v>0.9973925645994631</v>
+        <v>1.003621168174429</v>
       </c>
       <c r="L9">
-        <v>0.9930655341591194</v>
+        <v>0.9976870657625134</v>
       </c>
       <c r="M9">
-        <v>0.990054740121884</v>
+        <v>0.9936732484084431</v>
       </c>
       <c r="N9">
-        <v>1.000532184249181</v>
+        <v>1.006213743596482</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.000700228334283</v>
+        <v>1.003564198841215</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.009245740325877</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.013661237272687</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.013131791693158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9496778348791474</v>
+        <v>0.9574105122049037</v>
       </c>
       <c r="D10">
-        <v>0.9728699629563701</v>
+        <v>0.9812735080369358</v>
       </c>
       <c r="E10">
-        <v>0.9661029461662423</v>
+        <v>0.9723513877957147</v>
       </c>
       <c r="F10">
-        <v>0.9594569380999214</v>
+        <v>0.9644402073478141</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.021972153439584</v>
+        <v>1.022659439298703</v>
       </c>
       <c r="J10">
-        <v>0.9800407606907808</v>
+        <v>0.9874220796272446</v>
       </c>
       <c r="K10">
-        <v>0.9877469667816392</v>
+        <v>0.9959893119347376</v>
       </c>
       <c r="L10">
-        <v>0.98111243514071</v>
+        <v>0.9872384587915967</v>
       </c>
       <c r="M10">
-        <v>0.974598937646752</v>
+        <v>0.9794826235042584</v>
       </c>
       <c r="N10">
-        <v>0.9967919486375854</v>
+        <v>1.003861044119336</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>0.9885219046846121</v>
+        <v>0.9923870378972749</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.002442595097524</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.008283819794774</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.011232953835408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9430076325017386</v>
+        <v>0.9516687622861446</v>
       </c>
       <c r="D11">
-        <v>0.9677964935178525</v>
+        <v>0.9771948970535402</v>
       </c>
       <c r="E11">
-        <v>0.9597764425865412</v>
+        <v>0.9667752845784662</v>
       </c>
       <c r="F11">
-        <v>0.9514397094113477</v>
+        <v>0.9570823766607891</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.018282300664561</v>
+        <v>1.019097901404301</v>
       </c>
       <c r="J11">
-        <v>0.9749598104710453</v>
+        <v>0.9832001898902814</v>
       </c>
       <c r="K11">
-        <v>0.9833523934051455</v>
+        <v>0.9925600913905283</v>
       </c>
       <c r="L11">
-        <v>0.9754989868467141</v>
+        <v>0.9823522008825719</v>
       </c>
       <c r="M11">
-        <v>0.9673394285227539</v>
+        <v>0.972861729178465</v>
       </c>
       <c r="N11">
-        <v>0.9952234010249358</v>
+        <v>1.003064568809372</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>0.983242348140451</v>
+        <v>0.9876104423108113</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>0.9993695640442923</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.005896520339218</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.010445945097791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.940327891968737</v>
+        <v>0.9493431677655736</v>
       </c>
       <c r="D12">
-        <v>0.9657633203888364</v>
+        <v>0.9755469267461244</v>
       </c>
       <c r="E12">
-        <v>0.9571772651292315</v>
+        <v>0.9644578676953808</v>
       </c>
       <c r="F12">
-        <v>0.9481976010674805</v>
+        <v>0.9540973751718732</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.016792434049112</v>
+        <v>1.017662182210601</v>
       </c>
       <c r="J12">
-        <v>0.9728914768960958</v>
+        <v>0.9814576775880606</v>
       </c>
       <c r="K12">
-        <v>0.9815772095226973</v>
+        <v>0.9911580982111241</v>
       </c>
       <c r="L12">
-        <v>0.973173587581068</v>
+        <v>0.9802992175505026</v>
       </c>
       <c r="M12">
-        <v>0.964389422227773</v>
+        <v>0.9701602003350258</v>
       </c>
       <c r="N12">
-        <v>0.9946458222081589</v>
+        <v>1.002777560836491</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>0.98125603817827</v>
+        <v>0.9858189353974565</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>0.9981143283365761</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.004905209981319</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.010144590636797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9407915222152605</v>
+        <v>0.9496682526764314</v>
       </c>
       <c r="D13">
-        <v>0.9661400808431344</v>
+        <v>0.9757973367156592</v>
       </c>
       <c r="E13">
-        <v>0.9575409135735318</v>
+        <v>0.9646972406673507</v>
       </c>
       <c r="F13">
-        <v>0.9488109601273099</v>
+        <v>0.9546095819872845</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.017104007221466</v>
+        <v>1.0179552470261</v>
       </c>
       <c r="J13">
-        <v>0.9732289961333106</v>
+        <v>0.9816657265815311</v>
       </c>
       <c r="K13">
-        <v>0.9818997355714523</v>
+        <v>0.9913577406078019</v>
       </c>
       <c r="L13">
-        <v>0.9734824733230371</v>
+        <v>0.980487117497344</v>
       </c>
       <c r="M13">
-        <v>0.9649416758526489</v>
+        <v>0.9706141443964369</v>
       </c>
       <c r="N13">
-        <v>0.9948710522610855</v>
+        <v>1.002872631586625</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>0.981984568398242</v>
+        <v>0.9864684864125569</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>0.9983397656360402</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.005043522734448</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.010234541193536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9425372347823543</v>
+        <v>0.9510969553296085</v>
       </c>
       <c r="D14">
-        <v>0.9674948049947952</v>
+        <v>0.9768347728292536</v>
       </c>
       <c r="E14">
-        <v>0.9591327879932996</v>
+        <v>0.966021585347756</v>
       </c>
       <c r="F14">
-        <v>0.9509790379867505</v>
+        <v>0.9565477515836913</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.018132971789721</v>
+        <v>1.018939367877738</v>
       </c>
       <c r="J14">
-        <v>0.9745519883977201</v>
+        <v>0.9826946204546315</v>
       </c>
       <c r="K14">
-        <v>0.9830747210337499</v>
+        <v>0.9922247479556304</v>
       </c>
       <c r="L14">
-        <v>0.9748869107359533</v>
+        <v>0.9816319041395507</v>
       </c>
       <c r="M14">
-        <v>0.9669069430631931</v>
+        <v>0.9723565449197898</v>
       </c>
       <c r="N14">
-        <v>0.9953903831349014</v>
+        <v>1.003113565508834</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>0.9837192534005844</v>
+        <v>0.9880263815336565</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>0.9991720995798333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.00565818882606</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.010475567142708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9436560727068938</v>
+        <v>0.9520325994839172</v>
       </c>
       <c r="D15">
-        <v>0.9683611081284806</v>
+        <v>0.9775130092779487</v>
       </c>
       <c r="E15">
-        <v>0.9601768506138475</v>
+        <v>0.9669135407464395</v>
       </c>
       <c r="F15">
-        <v>0.9523529046926742</v>
+        <v>0.9577897291153736</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.018761073188542</v>
+        <v>1.019541960754663</v>
       </c>
       <c r="J15">
-        <v>0.9754097318020606</v>
+        <v>0.9833824564849404</v>
       </c>
       <c r="K15">
-        <v>0.9838300076148238</v>
+        <v>0.9927974673748148</v>
       </c>
       <c r="L15">
-        <v>0.9758146270801977</v>
+        <v>0.9824120353930249</v>
       </c>
       <c r="M15">
-        <v>0.9681557196351391</v>
+        <v>0.9734774815059312</v>
       </c>
       <c r="N15">
-        <v>0.9956965921603574</v>
+        <v>1.003262767157399</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>0.984745272146582</v>
+        <v>0.9889512489063507</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>0.9997123298684234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.006069846339499</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.010623903943054</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9501685935716802</v>
+        <v>0.9575813768213396</v>
       </c>
       <c r="D16">
-        <v>0.973374790291997</v>
+        <v>0.9815105916727707</v>
       </c>
       <c r="E16">
-        <v>0.9663490977797583</v>
+        <v>0.9722972106377665</v>
       </c>
       <c r="F16">
-        <v>0.960288472082943</v>
+        <v>0.9650426260431159</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.02224802745054</v>
+        <v>1.022901721073097</v>
       </c>
       <c r="J16">
-        <v>0.980425332527198</v>
+        <v>0.9875027199501552</v>
       </c>
       <c r="K16">
-        <v>0.9882038594022645</v>
+        <v>0.9961842137241264</v>
       </c>
       <c r="L16">
-        <v>0.981315169170307</v>
+        <v>0.9871471242751982</v>
       </c>
       <c r="M16">
-        <v>0.9753748456135355</v>
+        <v>0.9800344628119605</v>
       </c>
       <c r="N16">
-        <v>0.9973724171606393</v>
+        <v>1.004135353085202</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>0.9904106794647168</v>
+        <v>0.9940934754970869</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.002808367788442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.008468106864111</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.011457751247365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9541504883964674</v>
+        <v>0.9610273099254666</v>
       </c>
       <c r="D17">
-        <v>0.9764364897194217</v>
+        <v>0.9839918106596669</v>
       </c>
       <c r="E17">
-        <v>0.970139976002834</v>
+        <v>0.9756549122611203</v>
       </c>
       <c r="F17">
-        <v>0.9650589338495409</v>
+        <v>0.969441872774586</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.024280320865887</v>
+        <v>1.024868557274204</v>
       </c>
       <c r="J17">
-        <v>0.9834922206494863</v>
+        <v>0.9900701596198341</v>
       </c>
       <c r="K17">
-        <v>0.9908706840443116</v>
+        <v>0.9982864666331617</v>
       </c>
       <c r="L17">
-        <v>0.9846926309653672</v>
+        <v>0.9901037024508158</v>
       </c>
       <c r="M17">
-        <v>0.979708657865771</v>
+        <v>0.9840077855619719</v>
       </c>
       <c r="N17">
-        <v>0.9983577299521157</v>
+        <v>1.004692584235818</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>0.9937021044607858</v>
+        <v>0.9971003557735642</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.004696745837774</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.009957468528457</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.011960621039973</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9564356622901237</v>
+        <v>0.9630482234221449</v>
       </c>
       <c r="D18">
-        <v>0.9781757015214689</v>
+        <v>0.9854311261890075</v>
       </c>
       <c r="E18">
-        <v>0.9723473709125845</v>
+        <v>0.9776543597387198</v>
       </c>
       <c r="F18">
-        <v>0.9677506600661153</v>
+        <v>0.971953459563302</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.025413178218032</v>
+        <v>1.025969868094894</v>
       </c>
       <c r="J18">
-        <v>0.9852518803315453</v>
+        <v>0.9915837648737041</v>
       </c>
       <c r="K18">
-        <v>0.9923820934355461</v>
+        <v>0.9995061670617664</v>
       </c>
       <c r="L18">
-        <v>0.9866611297832474</v>
+        <v>0.9918702877003998</v>
       </c>
       <c r="M18">
-        <v>0.9821502889731281</v>
+        <v>0.9862745354918964</v>
       </c>
       <c r="N18">
-        <v>0.9988635412980886</v>
+        <v>1.005001050637183</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>0.9953845665914084</v>
+        <v>0.9986453232231204</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.005753298586509</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.010806646042879</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.012228707772804</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9571940687974081</v>
+        <v>0.9637644246799363</v>
       </c>
       <c r="D19">
-        <v>0.9787378854562554</v>
+        <v>0.9859288216728624</v>
       </c>
       <c r="E19">
-        <v>0.9731084814933885</v>
+        <v>0.9783905087546609</v>
       </c>
       <c r="F19">
-        <v>0.9685614525326074</v>
+        <v>0.9727375406670599</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.025778898719694</v>
+        <v>1.026329688362126</v>
       </c>
       <c r="J19">
-        <v>0.9858330621089088</v>
+        <v>0.9921267882615769</v>
       </c>
       <c r="K19">
-        <v>0.9928674327847664</v>
+        <v>0.9999290698090797</v>
       </c>
       <c r="L19">
-        <v>0.987340988144202</v>
+        <v>0.9925263648258359</v>
       </c>
       <c r="M19">
-        <v>0.9828782625988062</v>
+        <v>0.9869768862037716</v>
       </c>
       <c r="N19">
-        <v>0.9989486647660584</v>
+        <v>1.005067399446701</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>0.995619339218039</v>
+        <v>0.9988609980256619</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.006103140587588</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.01111292395641</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.012290514005429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9536427737217416</v>
+        <v>0.9607980357320337</v>
       </c>
       <c r="D20">
-        <v>0.9759498349846005</v>
+        <v>0.9837414024964988</v>
       </c>
       <c r="E20">
-        <v>0.9698151567237487</v>
+        <v>0.9755899307211011</v>
       </c>
       <c r="F20">
-        <v>0.9641634174934356</v>
+        <v>0.9687449173250098</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.024014836244389</v>
+        <v>1.024631406420871</v>
       </c>
       <c r="J20">
-        <v>0.9830855413749561</v>
+        <v>0.9899284940937373</v>
       </c>
       <c r="K20">
-        <v>0.990429184160951</v>
+        <v>0.9980762940402574</v>
       </c>
       <c r="L20">
-        <v>0.9844103808584282</v>
+        <v>0.990076025413355</v>
       </c>
       <c r="M20">
-        <v>0.9788671046733723</v>
+        <v>0.9833605534237877</v>
       </c>
       <c r="N20">
-        <v>0.9978373155671725</v>
+        <v>1.00443574818925</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>0.9918887148974131</v>
+        <v>0.9954450334336965</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.004383174632572</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.009807346261404</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.011758561596457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.942027302715971</v>
+        <v>0.9509742881772801</v>
       </c>
       <c r="D21">
-        <v>0.9669950011746856</v>
+        <v>0.9766589160009095</v>
       </c>
       <c r="E21">
-        <v>0.9588781972977779</v>
+        <v>0.9661313117802218</v>
       </c>
       <c r="F21">
-        <v>0.9500770978520546</v>
+        <v>0.955927774733592</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.01779393886424</v>
+        <v>1.01864467570933</v>
       </c>
       <c r="J21">
-        <v>0.9741660242683677</v>
+        <v>0.9826750452980396</v>
       </c>
       <c r="K21">
-        <v>0.9826298550370127</v>
+        <v>0.9920964087872993</v>
       </c>
       <c r="L21">
-        <v>0.9746828863750783</v>
+        <v>0.9817840582053026</v>
       </c>
       <c r="M21">
-        <v>0.9660702943568725</v>
+        <v>0.9717951453201195</v>
       </c>
       <c r="N21">
-        <v>0.9947792630166241</v>
+        <v>1.002918984687266</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>0.9817167209728532</v>
+        <v>0.9862479522304587</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>0.9988717364487931</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.005582875101765</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.010266881339391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9339928251803681</v>
+        <v>0.9442326779492251</v>
       </c>
       <c r="D22">
-        <v>0.9607959783466714</v>
+        <v>0.9717950391807184</v>
       </c>
       <c r="E22">
-        <v>0.9512343593005061</v>
+        <v>0.9595649407037401</v>
       </c>
       <c r="F22">
-        <v>0.940072277989959</v>
+        <v>0.946886197503342</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.013219788512706</v>
+        <v>1.014274376845475</v>
       </c>
       <c r="J22">
-        <v>0.9679307093894414</v>
+        <v>0.9776318569982642</v>
       </c>
       <c r="K22">
-        <v>0.9771862427135642</v>
+        <v>0.9879467421322695</v>
       </c>
       <c r="L22">
-        <v>0.967837988854398</v>
+        <v>0.9759823581354405</v>
       </c>
       <c r="M22">
-        <v>0.9569323393828985</v>
+        <v>0.9635887593833581</v>
       </c>
       <c r="N22">
-        <v>0.9926465317602361</v>
+        <v>1.001836377703501</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>0.974483936922785</v>
+        <v>0.9797525699449628</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>0.9950083191248434</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.002633314206051</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.009226367680661</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9383003624420119</v>
+        <v>0.9478210495751823</v>
       </c>
       <c r="D23">
-        <v>0.9641093479172811</v>
+        <v>0.9743716093455227</v>
       </c>
       <c r="E23">
-        <v>0.9553446093640816</v>
+        <v>0.9630739012326522</v>
       </c>
       <c r="F23">
-        <v>0.9454856933284491</v>
+        <v>0.9517588637106198</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.015717077383486</v>
+        <v>1.01665487097082</v>
       </c>
       <c r="J23">
-        <v>0.9712748755192577</v>
+        <v>0.9803134247329466</v>
       </c>
       <c r="K23">
-        <v>0.9800967790791257</v>
+        <v>0.9901434186370188</v>
       </c>
       <c r="L23">
-        <v>0.9715210715817701</v>
+        <v>0.9790834265879658</v>
       </c>
       <c r="M23">
-        <v>0.9618803681432265</v>
+        <v>0.9680139954149903</v>
       </c>
       <c r="N23">
-        <v>0.9937861516621284</v>
+        <v>1.002367229995446</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>0.9784003632849374</v>
+        <v>0.9832551682970281</v>
       </c>
       <c r="Q23">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R23">
-        <v>0.9970562441176958</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.004175521079004</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.009772443820151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9537526958252595</v>
+        <v>0.960903732402154</v>
       </c>
       <c r="D24">
-        <v>0.9760141221783019</v>
+        <v>0.9837982449741129</v>
       </c>
       <c r="E24">
-        <v>0.9699221783150145</v>
+        <v>0.9756951589538835</v>
       </c>
       <c r="F24">
-        <v>0.9643040998573166</v>
+        <v>0.9688828089149506</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.024099410772319</v>
+        <v>1.024714946738545</v>
       </c>
       <c r="J24">
-        <v>0.9831550469745692</v>
+        <v>0.9899945026633636</v>
       </c>
       <c r="K24">
-        <v>0.9904759700163749</v>
+        <v>0.9981159836722605</v>
       </c>
       <c r="L24">
-        <v>0.9844989178615505</v>
+        <v>0.9901629758501497</v>
       </c>
       <c r="M24">
-        <v>0.9789884799205602</v>
+        <v>0.983479339319922</v>
       </c>
       <c r="N24">
-        <v>0.9978412450702464</v>
+        <v>1.004437271319573</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>0.9919414418177974</v>
+        <v>0.9954959078961103</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.004387643243018</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.009804256147882</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.011758484405003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9694271254247115</v>
+        <v>0.9745981054389075</v>
       </c>
       <c r="D25">
-        <v>0.988107061845289</v>
+        <v>0.9937135121761466</v>
       </c>
       <c r="E25">
-        <v>0.9844889432677599</v>
+        <v>0.9886553190049964</v>
       </c>
       <c r="F25">
-        <v>0.9825919611079327</v>
+        <v>0.9858365877468206</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.031789065263937</v>
+        <v>1.032189573137341</v>
       </c>
       <c r="J25">
-        <v>0.9950290887137526</v>
+        <v>1.000011664204577</v>
       </c>
       <c r="K25">
-        <v>1.000892849294463</v>
+        <v>1.00641020801337</v>
       </c>
       <c r="L25">
-        <v>0.997332917394272</v>
+        <v>1.001432337004382</v>
       </c>
       <c r="M25">
-        <v>0.9954666624632947</v>
+        <v>0.998658824975266</v>
       </c>
       <c r="N25">
-        <v>1.001892996725277</v>
+        <v>1.007084682352628</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.004983642160265</v>
+        <v>1.007510152756737</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.011750482609542</v>
+        <v>1.015665699133832</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.013828460432231</v>
       </c>
     </row>
   </sheetData>
